--- a/Probability/Analysis_Best.xlsx
+++ b/Probability/Analysis_Best.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">log!$A$1:$C$2203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$2:$G$64</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -26,7 +26,7 @@
     <author>Vartotojas</author>
   </authors>
   <commentList>
-    <comment ref="CB34" authorId="0">
+    <comment ref="CB35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI34" authorId="0">
+    <comment ref="CI35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="4574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4952" uniqueCount="4574">
   <si>
     <t>19:47:37.50</t>
   </si>
@@ -13774,9 +13774,6 @@
     <t>Average 10</t>
   </si>
   <si>
-    <t>Best -0,000046238139</t>
-  </si>
-  <si>
     <t>Handmade</t>
   </si>
   <si>
@@ -13805,6 +13802,9 @@
   </si>
   <si>
     <t>Avg 10</t>
+  </si>
+  <si>
+    <t>Best -0,000001777634</t>
   </si>
 </sst>
 </file>
@@ -13812,8 +13812,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -14421,8 +14421,8 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -49033,10 +49033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:CM129"/>
+  <dimension ref="B2:CM130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR8" workbookViewId="0">
-      <selection activeCell="BT36" sqref="BT36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57751,359 +57751,272 @@
       </c>
     </row>
     <row r="34" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>4573</v>
+      <c r="B34" s="2"/>
+      <c r="C34">
+        <v>-1.777634E-6</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:BO34" si="0">AVERAGE(D24:D33)</f>
-        <v>1.305461407755506E-3</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0.64486974754115323</v>
+        <v>0.61542228240837704</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>2.2551405200000001E-18</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0.35382479105109127</v>
+        <v>0.38457771759162301</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1.4551693183762E-13</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>0.37938911197378361</v>
+        <v>0.38461530786633003</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
-        <v>5.6575786912613078E-2</v>
+        <v>0.115384692134103</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
-        <v>0.56403510111345778</v>
+        <v>0.49999999999956801</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
-        <v>0.85678219212443862</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <f t="shared" si="0"/>
-        <v>0.10565755021788223</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
-        <v>3.7560257657679251E-2</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="0"/>
-        <v>0.90748034282404111</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
-        <v>9.251965717595903E-2</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R34">
-        <f t="shared" si="0"/>
-        <v>4.7184478550000006E-17</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="0"/>
-        <v>0.9129756463505887</v>
+        <v>0.77136417466798701</v>
       </c>
       <c r="T34">
-        <f t="shared" si="0"/>
-        <v>4.5088446721534003E-3</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <f t="shared" si="0"/>
-        <v>8.2515508977257832E-2</v>
+        <v>0.22863582533201299</v>
       </c>
       <c r="V34">
-        <f t="shared" si="0"/>
-        <v>0.84281728909782605</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <f t="shared" si="0"/>
-        <v>0.15718271090217417</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99999999999854505</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="0"/>
-        <v>2.7755575610000003E-17</v>
+        <v>1.4551693183761999E-12</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="0"/>
-        <v>3.1824057278307002E-13</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="0"/>
-        <v>0.99999999999968181</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="0"/>
-        <v>2.7668839440000001E-17</v>
+        <v>2.0816681700000001E-17</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="0"/>
-        <v>1.1379040619999999E-17</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="0"/>
-        <v>1.4571677200000002E-17</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="0"/>
-        <v>0.99999999999991795</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="0"/>
-        <v>8.2085727104439996E-14</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="0"/>
-        <v>6.9388939000000003E-19</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="0"/>
-        <v>0.57821672424632065</v>
+        <v>0.53831087036751202</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="0"/>
-        <v>0.4148593746029488</v>
+        <v>0.46168912963248798</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="0"/>
-        <v>6.9239011507306793E-3</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="0"/>
-        <v>0.52902352409382525</v>
+        <v>0.76642268689775395</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="0"/>
-        <v>0.47097647590617486</v>
+        <v>0.233577313102246</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="0"/>
-        <v>0.91563524660425311</v>
+        <v>0.96156671180506204</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="0"/>
-        <v>8.4364753395747047E-2</v>
+        <v>3.8433288194937597E-2</v>
       </c>
       <c r="AO34">
-        <f t="shared" si="0"/>
-        <v>0.49957100839779034</v>
+        <v>0.65820568260241996</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="0"/>
-        <v>0.46451984389394979</v>
+        <v>0.34179431739757998</v>
       </c>
       <c r="AQ34">
-        <f t="shared" si="0"/>
-        <v>3.5909147708259828E-2</v>
+        <v>0</v>
       </c>
       <c r="AR34">
-        <f t="shared" si="0"/>
-        <v>0.67939304957191127</v>
+        <v>1</v>
       </c>
       <c r="AS34">
-        <f t="shared" si="0"/>
-        <v>0.32060695042808895</v>
+        <v>1.1102230250000001E-16</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="0"/>
-        <v>0.78345016612621421</v>
+        <v>0.817692827036126</v>
       </c>
       <c r="AU34">
-        <f t="shared" si="0"/>
-        <v>0.21654983387378576</v>
+        <v>0.182307172963874</v>
       </c>
       <c r="AV34">
-        <f t="shared" si="0"/>
-        <v>3.0531133180000004E-17</v>
+        <v>2.2551405200000002E-17</v>
       </c>
       <c r="AW34">
-        <f t="shared" si="0"/>
-        <v>0.99999999999975897</v>
+        <v>0.99999999999854505</v>
       </c>
       <c r="AX34">
-        <f t="shared" si="0"/>
-        <v>9.5609631323160006E-14</v>
+        <v>0</v>
       </c>
       <c r="AY34">
-        <f t="shared" si="0"/>
-        <v>1.4552629934439002E-13</v>
+        <v>1.4551693183761999E-12</v>
       </c>
       <c r="AZ34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BA34">
-        <f t="shared" si="0"/>
-        <v>0.68842116180542656</v>
+        <v>0.65384592359677096</v>
       </c>
       <c r="BB34">
-        <f t="shared" si="0"/>
-        <v>0.16946135922719927</v>
+        <v>0.34615407640322898</v>
       </c>
       <c r="BC34">
-        <f t="shared" si="0"/>
-        <v>0.14211747896737412</v>
+        <v>0</v>
       </c>
       <c r="BD34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BE34">
-        <f t="shared" si="0"/>
-        <v>0.72797698415693457</v>
+        <v>0.541719553021906</v>
       </c>
       <c r="BF34">
-        <f t="shared" si="0"/>
-        <v>0.27202301584306554</v>
+        <v>0.458280446978094</v>
       </c>
       <c r="BG34">
-        <f t="shared" si="0"/>
-        <v>0.29416705973465856</v>
+        <v>9.0205620800000006E-17</v>
       </c>
       <c r="BH34">
-        <f t="shared" si="0"/>
-        <v>0.70583294026534138</v>
+        <v>1</v>
       </c>
       <c r="BI34">
-        <f t="shared" si="0"/>
-        <v>7.0697316741295924E-2</v>
+        <v>2.2551405200000002E-17</v>
       </c>
       <c r="BJ34">
-        <f t="shared" si="0"/>
-        <v>0.92930268325870391</v>
+        <v>1</v>
       </c>
       <c r="BK34">
-        <f t="shared" si="0"/>
-        <v>1.4552248295274E-13</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="BL34">
-        <f t="shared" si="0"/>
-        <v>0.9673865012485614</v>
+        <v>1</v>
       </c>
       <c r="BM34">
-        <f t="shared" si="0"/>
-        <v>3.2613498751293296E-2</v>
+        <v>0</v>
       </c>
       <c r="BN34">
-        <f t="shared" si="0"/>
-        <v>0.54066986965335795</v>
+        <v>0.63752092403593497</v>
       </c>
       <c r="BO34">
-        <f t="shared" si="0"/>
-        <v>0.45933013034664205</v>
+        <v>0.36247907596406498</v>
       </c>
       <c r="BP34">
-        <f t="shared" ref="BP34:CM34" si="1">AVERAGE(BP24:BP33)</f>
-        <v>0.30972082645060028</v>
+        <v>0.27846099993088602</v>
       </c>
       <c r="BQ34">
-        <f t="shared" si="1"/>
-        <v>0.69027917354939983</v>
+        <v>0.72153900006911398</v>
       </c>
       <c r="BR34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BS34">
-        <f t="shared" si="1"/>
-        <v>0.29235041789743343</v>
+        <v>0.230844564815925</v>
       </c>
       <c r="BT34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BU34">
-        <f t="shared" si="1"/>
-        <v>0.70764958210256657</v>
+        <v>0.76915543518407503</v>
       </c>
       <c r="BV34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BW34">
-        <f t="shared" si="1"/>
-        <v>3.2265856650000007E-17</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="BX34">
-        <f t="shared" si="1"/>
-        <v>9.5365976574002287E-9</v>
+        <v>0</v>
       </c>
       <c r="BY34">
-        <f t="shared" si="1"/>
-        <v>0.99999999046340238</v>
+        <v>1</v>
       </c>
       <c r="BZ34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="CA34">
-        <f t="shared" si="1"/>
-        <v>2.3688136692081137E-2</v>
+        <v>2.7755575600000001E-17</v>
       </c>
       <c r="CB34">
-        <f t="shared" si="1"/>
-        <v>0.97631186330791875</v>
+        <v>1</v>
       </c>
       <c r="CC34">
-        <f t="shared" si="1"/>
-        <v>0.26419132633274672</v>
+        <v>0.53272930324670398</v>
       </c>
       <c r="CD34">
-        <f t="shared" si="1"/>
-        <v>0.73580867366725333</v>
+        <v>0.46727069675329602</v>
       </c>
       <c r="CE34">
-        <f t="shared" si="1"/>
-        <v>4.9960036110000007E-17</v>
+        <v>0</v>
       </c>
       <c r="CF34">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CG34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="CH34">
-        <f t="shared" si="1"/>
-        <v>0.14320393236240408</v>
+        <v>9.6557774587630193E-2</v>
       </c>
       <c r="CI34">
-        <f t="shared" si="1"/>
-        <v>0.85679606763759608</v>
+        <v>0.90344222541236996</v>
       </c>
       <c r="CJ34">
-        <f t="shared" si="1"/>
-        <v>0.55868075628839664</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="CK34">
-        <f t="shared" si="1"/>
-        <v>0.44131924371160336</v>
+        <v>1</v>
       </c>
       <c r="CL34">
-        <f t="shared" si="1"/>
-        <v>3.2612801330000001E-17</v>
+        <v>6.2450045100000003E-17</v>
       </c>
       <c r="CM34">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -58112,2375 +58025,2732 @@
         <v>4572</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <f t="shared" ref="D35:BO35" si="0">AVERAGE(D24:D33)</f>
+        <v>1.305461407755506E-3</v>
       </c>
       <c r="E35">
-        <v>0.61493261108937702</v>
+        <f t="shared" si="0"/>
+        <v>0.64486974754115323</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.2551405200000001E-18</v>
       </c>
       <c r="G35">
-        <v>0.38506738891062298</v>
+        <f t="shared" si="0"/>
+        <v>0.35382479105109127</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4551693183762E-13</v>
       </c>
       <c r="I35">
-        <v>0.38474801235225098</v>
+        <f t="shared" si="0"/>
+        <v>0.37938911197378361</v>
       </c>
       <c r="J35">
-        <v>0.11525198764774899</v>
+        <f t="shared" si="0"/>
+        <v>5.6575786912613078E-2</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.56403510111345778</v>
       </c>
       <c r="L35">
-        <v>0.99999999999708999</v>
+        <f t="shared" si="0"/>
+        <v>0.85678219212443862</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.10565755021788223</v>
       </c>
       <c r="N35">
-        <v>2.9103386367523999E-12</v>
+        <f t="shared" si="0"/>
+        <v>3.7560257657679251E-2</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.90748034282404111</v>
       </c>
       <c r="P35">
-        <v>5.5511151200000003E-17</v>
+        <f t="shared" si="0"/>
+        <v>9.251965717595903E-2</v>
       </c>
       <c r="Q35">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.7184478550000006E-17</v>
       </c>
       <c r="S35">
-        <v>0.819311554917875</v>
+        <f t="shared" si="0"/>
+        <v>0.9129756463505887</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.5088446721534003E-3</v>
       </c>
       <c r="U35">
-        <v>0.180688445082125</v>
+        <f t="shared" si="0"/>
+        <v>8.2515508977257832E-2</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.84281728909782605</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15718271090217417</v>
       </c>
       <c r="X35">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7755575610000003E-17</v>
       </c>
       <c r="Z35">
-        <v>2.0816681700000001E-17</v>
+        <f t="shared" si="0"/>
+        <v>3.1824057278307002E-13</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.99999999999968181</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7668839440000001E-17</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.1379040619999999E-17</v>
       </c>
       <c r="AD35">
-        <v>6.9388939000000003E-18</v>
+        <f t="shared" si="0"/>
+        <v>1.4571677200000002E-17</v>
       </c>
       <c r="AE35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.99999999999991795</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.2085727104439996E-14</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.9388939000000003E-19</v>
       </c>
       <c r="AH35">
-        <v>0.53831087036526604</v>
+        <f t="shared" si="0"/>
+        <v>0.57821672424632065</v>
       </c>
       <c r="AI35">
-        <v>0.46168912963473402</v>
+        <f t="shared" si="0"/>
+        <v>0.4148593746029488</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.9239011507306793E-3</v>
       </c>
       <c r="AK35">
-        <v>0.76642268689775395</v>
+        <f t="shared" si="0"/>
+        <v>0.52902352409382525</v>
       </c>
       <c r="AL35">
-        <v>0.233577313102246</v>
+        <f t="shared" si="0"/>
+        <v>0.47097647590617486</v>
       </c>
       <c r="AM35">
-        <v>0.96119945831742404</v>
+        <f t="shared" si="0"/>
+        <v>0.91563524660425311</v>
       </c>
       <c r="AN35">
-        <v>3.8800541682576399E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.4364753395747047E-2</v>
       </c>
       <c r="AO35">
-        <v>0.64227111586951602</v>
+        <f t="shared" si="0"/>
+        <v>0.49957100839779034</v>
       </c>
       <c r="AP35">
-        <v>0.35772888413048398</v>
+        <f t="shared" si="0"/>
+        <v>0.46451984389394979</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.5909147708259828E-2</v>
       </c>
       <c r="AR35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.67939304957191127</v>
       </c>
       <c r="AS35">
-        <v>1.1102230250000001E-16</v>
+        <f t="shared" si="0"/>
+        <v>0.32060695042808895</v>
       </c>
       <c r="AT35">
-        <v>0.71679482481552104</v>
+        <f t="shared" si="0"/>
+        <v>0.78345016612621421</v>
       </c>
       <c r="AU35">
-        <v>0.28320517518447902</v>
+        <f t="shared" si="0"/>
+        <v>0.21654983387378576</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.0531133180000004E-17</v>
       </c>
       <c r="AW35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.99999999999975897</v>
       </c>
       <c r="AX35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.5609631323160006E-14</v>
       </c>
       <c r="AY35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4552629934439002E-13</v>
       </c>
       <c r="AZ35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>0.65424403705307099</v>
+        <f t="shared" si="0"/>
+        <v>0.68842116180542656</v>
       </c>
       <c r="BB35">
-        <v>0.34575596294692901</v>
+        <f t="shared" si="0"/>
+        <v>0.16946135922719927</v>
       </c>
       <c r="BC35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.14211747896737412</v>
       </c>
       <c r="BD35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BE35">
-        <v>0.41974411731062</v>
+        <f t="shared" si="0"/>
+        <v>0.72797698415693457</v>
       </c>
       <c r="BF35">
-        <v>0.58025588268938</v>
+        <f t="shared" si="0"/>
+        <v>0.27202301584306554</v>
       </c>
       <c r="BG35">
-        <v>9.0205620800000006E-17</v>
+        <f t="shared" si="0"/>
+        <v>0.29416705973465856</v>
       </c>
       <c r="BH35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70583294026534138</v>
       </c>
       <c r="BI35">
-        <v>2.2551405200000002E-17</v>
+        <f t="shared" si="0"/>
+        <v>7.0697316741295924E-2</v>
       </c>
       <c r="BJ35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.92930268325870391</v>
       </c>
       <c r="BK35">
-        <v>5.5511151200000003E-17</v>
+        <f t="shared" si="0"/>
+        <v>1.4552248295274E-13</v>
       </c>
       <c r="BL35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.9673865012485614</v>
       </c>
       <c r="BM35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.2613498751293296E-2</v>
       </c>
       <c r="BN35">
-        <v>0.63752092403593497</v>
+        <f t="shared" si="0"/>
+        <v>0.54066986965335795</v>
       </c>
       <c r="BO35">
-        <v>0.36247907596406498</v>
+        <f t="shared" si="0"/>
+        <v>0.45933013034664205</v>
       </c>
       <c r="BP35">
-        <v>0.37939217827447702</v>
+        <f t="shared" ref="BP35:CM35" si="1">AVERAGE(BP24:BP33)</f>
+        <v>0.30972082645060028</v>
       </c>
       <c r="BQ35">
-        <v>0.62060782172552298</v>
+        <f t="shared" si="1"/>
+        <v>0.69027917354939983</v>
       </c>
       <c r="BR35">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>0.229865222177881</v>
+        <f t="shared" si="1"/>
+        <v>0.29235041789743343</v>
       </c>
       <c r="BT35">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BU35">
-        <v>0.77013477782211903</v>
+        <f t="shared" si="1"/>
+        <v>0.70764958210256657</v>
       </c>
       <c r="BV35">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BW35">
-        <v>5.5511151200000003E-17</v>
+        <f t="shared" si="1"/>
+        <v>3.2265856650000007E-17</v>
       </c>
       <c r="BX35">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.5365976574002287E-9</v>
       </c>
       <c r="BY35">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999046340238</v>
       </c>
       <c r="BZ35">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="CA35">
-        <v>2.7755575600000001E-17</v>
+        <f t="shared" si="1"/>
+        <v>2.3688136692081137E-2</v>
       </c>
       <c r="CB35">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.97631186330791875</v>
       </c>
       <c r="CC35">
-        <v>0.53272930324670398</v>
+        <f t="shared" si="1"/>
+        <v>0.26419132633274672</v>
       </c>
       <c r="CD35">
-        <v>0.46727069675329602</v>
+        <f t="shared" si="1"/>
+        <v>0.73580867366725333</v>
       </c>
       <c r="CE35">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.9960036110000007E-17</v>
       </c>
       <c r="CF35">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CG35">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="CH35">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.14320393236240408</v>
       </c>
       <c r="CI35">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.85679606763759608</v>
       </c>
       <c r="CJ35">
-        <v>5.5511151200000003E-17</v>
+        <f t="shared" si="1"/>
+        <v>0.55868075628839664</v>
       </c>
       <c r="CK35">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.44131924371160336</v>
       </c>
       <c r="CL35">
-        <v>6.2450045100000003E-17</v>
+        <f t="shared" si="1"/>
+        <v>3.2612801330000001E-17</v>
       </c>
       <c r="CM35">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.61493261108937702</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0.38506738891062298</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.38474801235225098</v>
+      </c>
+      <c r="J36">
+        <v>0.11525198764774899</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36">
+        <v>0.99999999999708999</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>2.9103386367523999E-12</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0.819311554917875</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0.180688445082125</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>2.0816681700000001E-17</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>6.9388939000000003E-18</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0.53831087036526604</v>
+      </c>
+      <c r="AI36">
+        <v>0.46168912963473402</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0.76642268689775395</v>
+      </c>
+      <c r="AL36">
+        <v>0.233577313102246</v>
+      </c>
+      <c r="AM36">
+        <v>0.96119945831742404</v>
+      </c>
+      <c r="AN36">
+        <v>3.8800541682576399E-2</v>
+      </c>
+      <c r="AO36">
+        <v>0.64227111586951602</v>
+      </c>
+      <c r="AP36">
+        <v>0.35772888413048398</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>1.1102230250000001E-16</v>
+      </c>
+      <c r="AT36">
+        <v>0.71679482481552104</v>
+      </c>
+      <c r="AU36">
+        <v>0.28320517518447902</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0.65424403705307099</v>
+      </c>
+      <c r="BB36">
+        <v>0.34575596294692901</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0.41974411731062</v>
+      </c>
+      <c r="BF36">
+        <v>0.58025588268938</v>
+      </c>
+      <c r="BG36">
+        <v>9.0205620800000006E-17</v>
+      </c>
+      <c r="BH36">
+        <v>1</v>
+      </c>
+      <c r="BI36">
+        <v>2.2551405200000002E-17</v>
+      </c>
+      <c r="BJ36">
+        <v>1</v>
+      </c>
+      <c r="BK36">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="BL36">
+        <v>1</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0.63752092403593497</v>
+      </c>
+      <c r="BO36">
+        <v>0.36247907596406498</v>
+      </c>
+      <c r="BP36">
+        <v>0.37939217827447702</v>
+      </c>
+      <c r="BQ36">
+        <v>0.62060782172552298</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>0.229865222177881</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
+        <v>0.77013477782211903</v>
+      </c>
+      <c r="BV36">
+        <v>0</v>
+      </c>
+      <c r="BW36">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="BX36">
+        <v>0</v>
+      </c>
+      <c r="BY36">
+        <v>1</v>
+      </c>
+      <c r="BZ36">
+        <v>0</v>
+      </c>
+      <c r="CA36">
+        <v>2.7755575600000001E-17</v>
+      </c>
+      <c r="CB36">
+        <v>1</v>
+      </c>
+      <c r="CC36">
+        <v>0.53272930324670398</v>
+      </c>
+      <c r="CD36">
+        <v>0.46727069675329602</v>
+      </c>
+      <c r="CE36">
+        <v>0</v>
+      </c>
+      <c r="CF36">
+        <v>1</v>
+      </c>
+      <c r="CG36">
+        <v>0</v>
+      </c>
+      <c r="CH36">
+        <v>0</v>
+      </c>
+      <c r="CI36">
+        <v>1</v>
+      </c>
+      <c r="CJ36">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="CK36">
+        <v>1</v>
+      </c>
+      <c r="CL36">
+        <v>6.2450045100000003E-17</v>
+      </c>
+      <c r="CM36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>4563</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="J37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="V37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="W37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>1</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>1</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>1</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="BR37">
+        <v>0</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="BT37">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>4570</v>
+      </c>
+      <c r="BV37">
+        <v>0</v>
+      </c>
+      <c r="BW37">
+        <v>0</v>
+      </c>
+      <c r="BX37">
+        <v>0</v>
+      </c>
+      <c r="BY37">
+        <v>1</v>
+      </c>
+      <c r="BZ37">
+        <v>0</v>
+      </c>
+      <c r="CA37">
+        <v>0</v>
+      </c>
+      <c r="CB37">
+        <v>1</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="CE37">
+        <v>0</v>
+      </c>
+      <c r="CF37">
+        <v>1</v>
+      </c>
+      <c r="CG37">
+        <v>0</v>
+      </c>
+      <c r="CH37">
+        <v>0</v>
+      </c>
+      <c r="CI37">
+        <v>1</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>4569</v>
+      </c>
+      <c r="CL37">
+        <v>0</v>
+      </c>
+      <c r="CM37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="5" t="s">
         <v>4564</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="J36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="K36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="L36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="M36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="N36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="O36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="P36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="R36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="S36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="T36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="U36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="V36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="W36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>1</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="BO36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="BP36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BQ36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BR36">
-        <v>0</v>
-      </c>
-      <c r="BS36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BT36">
-        <v>0</v>
-      </c>
-      <c r="BU36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="BV36">
-        <v>0</v>
-      </c>
-      <c r="BW36">
-        <v>0</v>
-      </c>
-      <c r="BX36">
-        <v>0</v>
-      </c>
-      <c r="BY36">
-        <v>1</v>
-      </c>
-      <c r="BZ36">
-        <v>0</v>
-      </c>
-      <c r="CA36">
-        <v>0</v>
-      </c>
-      <c r="CB36">
-        <v>1</v>
-      </c>
-      <c r="CC36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="CD36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="CE36">
-        <v>0</v>
-      </c>
-      <c r="CF36">
-        <v>1</v>
-      </c>
-      <c r="CG36">
-        <v>0</v>
-      </c>
-      <c r="CH36">
-        <v>0</v>
-      </c>
-      <c r="CI36">
-        <v>1</v>
-      </c>
-      <c r="CJ36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>4570</v>
-      </c>
-      <c r="CL36">
-        <v>0</v>
-      </c>
-      <c r="CM36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="5" t="s">
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="M38" s="6">
+        <v>1</v>
+      </c>
+      <c r="N38" s="6">
+        <v>2</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="P38" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="R38" s="6">
+        <v>2</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="T38" s="7">
+        <v>1</v>
+      </c>
+      <c r="U38" s="7">
+        <v>2</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="W38" s="6">
+        <v>1</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="Y38" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>2</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AI38" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="6">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AL38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AN38" s="6">
+        <v>2</v>
+      </c>
+      <c r="AO38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AP38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AS38" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AU38" s="8">
+        <v>2</v>
+      </c>
+      <c r="AV38" s="5" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AW38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY38" s="6">
+        <v>2</v>
+      </c>
+      <c r="AZ38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="BA38" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC38" s="7">
+        <v>2</v>
+      </c>
+      <c r="BD38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="BE38" s="6">
+        <v>1</v>
+      </c>
+      <c r="BF38" s="6">
+        <v>2</v>
+      </c>
+      <c r="BG38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="BH38" s="7">
+        <v>1</v>
+      </c>
+      <c r="BI38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="BJ38" s="6">
+        <v>2</v>
+      </c>
+      <c r="BK38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="BL38" s="7">
+        <v>1</v>
+      </c>
+      <c r="BM38" s="7">
+        <v>2</v>
+      </c>
+      <c r="BN38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="BO38" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="BQ38" s="8">
+        <v>2</v>
+      </c>
+      <c r="BR38" s="5" t="s">
+        <v>4564</v>
+      </c>
+      <c r="BS38" s="6">
+        <v>0</v>
+      </c>
+      <c r="BT38" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU38" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="BW38" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX38" s="7">
+        <v>1</v>
+      </c>
+      <c r="BY38" s="7">
+        <v>2</v>
+      </c>
+      <c r="BZ38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="CA38" s="6">
+        <v>1</v>
+      </c>
+      <c r="CB38" s="6">
+        <v>2</v>
+      </c>
+      <c r="CC38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="CD38" s="7">
+        <v>1</v>
+      </c>
+      <c r="CE38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="CF38" s="6">
+        <v>2</v>
+      </c>
+      <c r="CG38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="CH38" s="7">
+        <v>1</v>
+      </c>
+      <c r="CI38" s="7">
+        <v>2</v>
+      </c>
+      <c r="CJ38" s="6" t="s">
+        <v>4564</v>
+      </c>
+      <c r="CK38" s="6">
+        <v>1</v>
+      </c>
+      <c r="CL38" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="CM38" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="10" t="s">
+        <v>4566</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11" t="s">
+        <v>4567</v>
+      </c>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="10" t="s">
+        <v>4568</v>
+      </c>
+      <c r="R39" s="10"/>
+      <c r="S39" s="11">
+        <v>1</v>
+      </c>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="10" t="s">
         <v>4565</v>
       </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="W39" s="10"/>
+      <c r="X39" s="11">
         <v>2</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="10" t="s">
+        <v>4566</v>
+      </c>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="11" t="s">
+        <v>4567</v>
+      </c>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="10" t="s">
+        <v>4568</v>
+      </c>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="10" t="s">
         <v>4565</v>
       </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
-        <v>1</v>
-      </c>
-      <c r="K37" s="7">
+      <c r="AS39" s="10"/>
+      <c r="AT39" s="11">
         <v>2</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="11"/>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="11"/>
+      <c r="BD39" s="10" t="s">
+        <v>4566</v>
+      </c>
+      <c r="BE39" s="10"/>
+      <c r="BF39" s="10"/>
+      <c r="BG39" s="11" t="s">
+        <v>4567</v>
+      </c>
+      <c r="BH39" s="11"/>
+      <c r="BI39" s="10" t="s">
+        <v>4568</v>
+      </c>
+      <c r="BJ39" s="10"/>
+      <c r="BK39" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL39" s="11"/>
+      <c r="BM39" s="11"/>
+      <c r="BN39" s="10" t="s">
         <v>4565</v>
       </c>
-      <c r="M37" s="6">
-        <v>1</v>
-      </c>
-      <c r="N37" s="6">
+      <c r="BO39" s="10"/>
+      <c r="BP39" s="11">
         <v>2</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="BQ39" s="12"/>
+      <c r="BR39" s="9"/>
+      <c r="BS39" s="10"/>
+      <c r="BT39" s="10"/>
+      <c r="BU39" s="10"/>
+      <c r="BV39" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW39" s="11"/>
+      <c r="BX39" s="11"/>
+      <c r="BY39" s="11"/>
+      <c r="BZ39" s="10" t="s">
+        <v>4566</v>
+      </c>
+      <c r="CA39" s="10"/>
+      <c r="CB39" s="10"/>
+      <c r="CC39" s="11" t="s">
+        <v>4567</v>
+      </c>
+      <c r="CD39" s="11"/>
+      <c r="CE39" s="10" t="s">
+        <v>4568</v>
+      </c>
+      <c r="CF39" s="10"/>
+      <c r="CG39" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH39" s="11"/>
+      <c r="CI39" s="11"/>
+      <c r="CJ39" s="10" t="s">
         <v>4565</v>
       </c>
-      <c r="P37" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="R37" s="6">
+      <c r="CK39" s="10"/>
+      <c r="CL39" s="11">
         <v>2</v>
       </c>
-      <c r="S37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="T37" s="7">
-        <v>1</v>
-      </c>
-      <c r="U37" s="7">
+      <c r="CM39" s="12"/>
+    </row>
+    <row r="40" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="13">
         <v>2</v>
       </c>
-      <c r="V37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="W37" s="6">
-        <v>1</v>
-      </c>
-      <c r="X37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="Y37" s="8">
-        <v>2</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>4565</v>
-      </c>
-      <c r="AA37" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="6">
-        <v>2</v>
-      </c>
-      <c r="AD37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="AE37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG37" s="7">
-        <v>2</v>
-      </c>
-      <c r="AH37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="AI37" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ37" s="6">
-        <v>2</v>
-      </c>
-      <c r="AK37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="AL37" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="AN37" s="6">
-        <v>2</v>
-      </c>
-      <c r="AO37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="AP37" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ37" s="7">
-        <v>2</v>
-      </c>
-      <c r="AR37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="AS37" s="6">
-        <v>1</v>
-      </c>
-      <c r="AT37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="AU37" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV37" s="5" t="s">
-        <v>4565</v>
-      </c>
-      <c r="AW37" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="6">
-        <v>1</v>
-      </c>
-      <c r="AY37" s="6">
-        <v>2</v>
-      </c>
-      <c r="AZ37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="BA37" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB37" s="7">
-        <v>1</v>
-      </c>
-      <c r="BC37" s="7">
-        <v>2</v>
-      </c>
-      <c r="BD37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="BE37" s="6">
-        <v>1</v>
-      </c>
-      <c r="BF37" s="6">
-        <v>2</v>
-      </c>
-      <c r="BG37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="BH37" s="7">
-        <v>1</v>
-      </c>
-      <c r="BI37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="BJ37" s="6">
-        <v>2</v>
-      </c>
-      <c r="BK37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="BL37" s="7">
-        <v>1</v>
-      </c>
-      <c r="BM37" s="7">
-        <v>2</v>
-      </c>
-      <c r="BN37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="BO37" s="6">
-        <v>1</v>
-      </c>
-      <c r="BP37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="BQ37" s="8">
-        <v>2</v>
-      </c>
-      <c r="BR37" s="5" t="s">
-        <v>4565</v>
-      </c>
-      <c r="BS37" s="6">
-        <v>0</v>
-      </c>
-      <c r="BT37" s="6">
-        <v>1</v>
-      </c>
-      <c r="BU37" s="6">
-        <v>2</v>
-      </c>
-      <c r="BV37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="BW37" s="7">
-        <v>0</v>
-      </c>
-      <c r="BX37" s="7">
-        <v>1</v>
-      </c>
-      <c r="BY37" s="7">
-        <v>2</v>
-      </c>
-      <c r="BZ37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="CA37" s="6">
-        <v>1</v>
-      </c>
-      <c r="CB37" s="6">
-        <v>2</v>
-      </c>
-      <c r="CC37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="CD37" s="7">
-        <v>1</v>
-      </c>
-      <c r="CE37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="CF37" s="6">
-        <v>2</v>
-      </c>
-      <c r="CG37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="CH37" s="7">
-        <v>1</v>
-      </c>
-      <c r="CI37" s="7">
-        <v>2</v>
-      </c>
-      <c r="CJ37" s="6" t="s">
-        <v>4565</v>
-      </c>
-      <c r="CK37" s="6">
-        <v>1</v>
-      </c>
-      <c r="CL37" s="7" t="s">
-        <v>4565</v>
-      </c>
-      <c r="CM37" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="10" t="s">
-        <v>4567</v>
-      </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="11" t="s">
-        <v>4568</v>
-      </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="10" t="s">
-        <v>4569</v>
-      </c>
-      <c r="R38" s="10"/>
-      <c r="S38" s="11">
-        <v>1</v>
-      </c>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="10" t="s">
-        <v>4566</v>
-      </c>
-      <c r="W38" s="10"/>
-      <c r="X38" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="10" t="s">
-        <v>4567</v>
-      </c>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="11" t="s">
-        <v>4568</v>
-      </c>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="10" t="s">
-        <v>4569</v>
-      </c>
-      <c r="AN38" s="10"/>
-      <c r="AO38" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP38" s="11"/>
-      <c r="AQ38" s="11"/>
-      <c r="AR38" s="10" t="s">
-        <v>4566</v>
-      </c>
-      <c r="AS38" s="10"/>
-      <c r="AT38" s="11">
-        <v>2</v>
-      </c>
-      <c r="AU38" s="12"/>
-      <c r="AV38" s="9"/>
-      <c r="AW38" s="10"/>
-      <c r="AX38" s="10"/>
-      <c r="AY38" s="10"/>
-      <c r="AZ38" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA38" s="11"/>
-      <c r="BB38" s="11"/>
-      <c r="BC38" s="11"/>
-      <c r="BD38" s="10" t="s">
-        <v>4567</v>
-      </c>
-      <c r="BE38" s="10"/>
-      <c r="BF38" s="10"/>
-      <c r="BG38" s="11" t="s">
-        <v>4568</v>
-      </c>
-      <c r="BH38" s="11"/>
-      <c r="BI38" s="10" t="s">
-        <v>4569</v>
-      </c>
-      <c r="BJ38" s="10"/>
-      <c r="BK38" s="11">
-        <v>1</v>
-      </c>
-      <c r="BL38" s="11"/>
-      <c r="BM38" s="11"/>
-      <c r="BN38" s="10" t="s">
-        <v>4566</v>
-      </c>
-      <c r="BO38" s="10"/>
-      <c r="BP38" s="11">
-        <v>2</v>
-      </c>
-      <c r="BQ38" s="12"/>
-      <c r="BR38" s="9"/>
-      <c r="BS38" s="10"/>
-      <c r="BT38" s="10"/>
-      <c r="BU38" s="10"/>
-      <c r="BV38" s="11">
-        <v>0</v>
-      </c>
-      <c r="BW38" s="11"/>
-      <c r="BX38" s="11"/>
-      <c r="BY38" s="11"/>
-      <c r="BZ38" s="10" t="s">
-        <v>4567</v>
-      </c>
-      <c r="CA38" s="10"/>
-      <c r="CB38" s="10"/>
-      <c r="CC38" s="11" t="s">
-        <v>4568</v>
-      </c>
-      <c r="CD38" s="11"/>
-      <c r="CE38" s="10" t="s">
-        <v>4569</v>
-      </c>
-      <c r="CF38" s="10"/>
-      <c r="CG38" s="11">
-        <v>1</v>
-      </c>
-      <c r="CH38" s="11"/>
-      <c r="CI38" s="11"/>
-      <c r="CJ38" s="10" t="s">
-        <v>4566</v>
-      </c>
-      <c r="CK38" s="10"/>
-      <c r="CL38" s="11">
-        <v>2</v>
-      </c>
-      <c r="CM38" s="12"/>
-    </row>
-    <row r="39" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="13">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="14"/>
-      <c r="AL39" s="14"/>
-      <c r="AM39" s="14"/>
-      <c r="AN39" s="14"/>
-      <c r="AO39" s="14"/>
-      <c r="AP39" s="14"/>
-      <c r="AQ39" s="14"/>
-      <c r="AR39" s="14"/>
-      <c r="AS39" s="14"/>
-      <c r="AT39" s="14"/>
-      <c r="AU39" s="15"/>
-      <c r="AV39" s="13">
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="13">
         <v>3</v>
       </c>
-      <c r="AW39" s="14"/>
-      <c r="AX39" s="14"/>
-      <c r="AY39" s="14"/>
-      <c r="AZ39" s="14"/>
-      <c r="BA39" s="14"/>
-      <c r="BB39" s="14"/>
-      <c r="BC39" s="14"/>
-      <c r="BD39" s="14"/>
-      <c r="BE39" s="14"/>
-      <c r="BF39" s="14"/>
-      <c r="BG39" s="14"/>
-      <c r="BH39" s="14"/>
-      <c r="BI39" s="14"/>
-      <c r="BJ39" s="14"/>
-      <c r="BK39" s="14"/>
-      <c r="BL39" s="14"/>
-      <c r="BM39" s="14"/>
-      <c r="BN39" s="14"/>
-      <c r="BO39" s="14"/>
-      <c r="BP39" s="14"/>
-      <c r="BQ39" s="15"/>
-      <c r="BR39" s="13">
+      <c r="AW40" s="14"/>
+      <c r="AX40" s="14"/>
+      <c r="AY40" s="14"/>
+      <c r="AZ40" s="14"/>
+      <c r="BA40" s="14"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="14"/>
+      <c r="BE40" s="14"/>
+      <c r="BF40" s="14"/>
+      <c r="BG40" s="14"/>
+      <c r="BH40" s="14"/>
+      <c r="BI40" s="14"/>
+      <c r="BJ40" s="14"/>
+      <c r="BK40" s="14"/>
+      <c r="BL40" s="14"/>
+      <c r="BM40" s="14"/>
+      <c r="BN40" s="14"/>
+      <c r="BO40" s="14"/>
+      <c r="BP40" s="14"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="13">
         <v>4</v>
       </c>
-      <c r="BS39" s="14"/>
-      <c r="BT39" s="14"/>
-      <c r="BU39" s="14"/>
-      <c r="BV39" s="14"/>
-      <c r="BW39" s="14"/>
-      <c r="BX39" s="14"/>
-      <c r="BY39" s="14"/>
-      <c r="BZ39" s="14"/>
-      <c r="CA39" s="14"/>
-      <c r="CB39" s="14"/>
-      <c r="CC39" s="14"/>
-      <c r="CD39" s="14"/>
-      <c r="CE39" s="14"/>
-      <c r="CF39" s="14"/>
-      <c r="CG39" s="14"/>
-      <c r="CH39" s="14"/>
-      <c r="CI39" s="14"/>
-      <c r="CJ39" s="14"/>
-      <c r="CK39" s="14"/>
-      <c r="CL39" s="14"/>
-      <c r="CM39" s="15"/>
-    </row>
-    <row r="41" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="D41" s="3"/>
-      <c r="E41" t="s">
-        <v>4563</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="BS40" s="14"/>
+      <c r="BT40" s="14"/>
+      <c r="BU40" s="14"/>
+      <c r="BV40" s="14"/>
+      <c r="BW40" s="14"/>
+      <c r="BX40" s="14"/>
+      <c r="BY40" s="14"/>
+      <c r="BZ40" s="14"/>
+      <c r="CA40" s="14"/>
+      <c r="CB40" s="14"/>
+      <c r="CC40" s="14"/>
+      <c r="CD40" s="14"/>
+      <c r="CE40" s="14"/>
+      <c r="CF40" s="14"/>
+      <c r="CG40" s="14"/>
+      <c r="CH40" s="14"/>
+      <c r="CI40" s="14"/>
+      <c r="CJ40" s="14"/>
+      <c r="CK40" s="14"/>
+      <c r="CL40" s="14"/>
+      <c r="CM40" s="15"/>
+    </row>
+    <row r="42" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="D42" s="3"/>
+      <c r="E42" t="s">
+        <v>4573</v>
+      </c>
+      <c r="K42" t="s">
         <v>4562</v>
-      </c>
-    </row>
-    <row r="42" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" ref="E42:E105" si="2">"brainCells["&amp;C42&amp;"] = "&amp;D42&amp;"d;"</f>
-        <v>brainCells[0] = 0d;</v>
-      </c>
-      <c r="K42" t="s">
-        <v>4474</v>
       </c>
     </row>
     <row r="43" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>0.61493261108937702</v>
+        <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
-        <v>brainCells[1] = 0,614932611089377d;</v>
+        <f t="shared" ref="E43:E106" si="2">"brainCells["&amp;C43&amp;"] = "&amp;D43&amp;"d;"</f>
+        <v>brainCells[0] = 0d;</v>
       </c>
       <c r="K43" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="44" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>0.61542228240837704</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[2] = 0d;</v>
+        <v>brainCells[1] = 0,615422282408377d;</v>
       </c>
       <c r="K44" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="45" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3">
-        <v>0.38506738891062298</v>
+        <v>0</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[3] = 0,385067388910623d;</v>
+        <v>brainCells[2] = 0d;</v>
       </c>
       <c r="K45" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="46" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>0.38457771759162301</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[4] = 0d;</v>
+        <v>brainCells[3] = 0,384577717591623d;</v>
       </c>
       <c r="K46" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="47" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3">
-        <v>0.38474801235225098</v>
+        <v>0</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[5] = 0,384748012352251d;</v>
+        <v>brainCells[4] = 0d;</v>
       </c>
       <c r="K47" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="48" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="3">
-        <v>0.11525198764774899</v>
+        <v>0.38461530786633003</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[6] = 0,115251987647749d;</v>
+        <v>brainCells[5] = 0,38461530786633d;</v>
       </c>
       <c r="K48" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="3">
-        <v>0.5</v>
+        <v>0.115384692134103</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[7] = 0,5d;</v>
+        <v>brainCells[6] = 0,115384692134103d;</v>
       </c>
       <c r="K49" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="3">
-        <v>0.99999999999708999</v>
+        <v>0.49999999999956801</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[8] = 0,99999999999709d;</v>
+        <v>brainCells[7] = 0,499999999999568d;</v>
       </c>
       <c r="K50" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[9] = 0d;</v>
+        <v>brainCells[8] = 1d;</v>
       </c>
       <c r="K51" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="3">
-        <v>2.9103386367523999E-12</v>
+        <v>0</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[10] = 2,9103386367524E-12d;</v>
+        <v>brainCells[9] = 0d;</v>
       </c>
       <c r="K52" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[11] = 1d;</v>
+        <v>brainCells[10] = 0d;</v>
       </c>
       <c r="K53" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="3">
-        <v>5.5511151200000003E-17</v>
+        <v>1</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[12] = 5,55111512E-17d;</v>
+        <v>brainCells[11] = 1d;</v>
       </c>
       <c r="K54" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="3">
-        <v>1</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[13] = 1d;</v>
+        <v>brainCells[12] = 5,55111512E-17d;</v>
       </c>
       <c r="K55" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[14] = 0d;</v>
+        <v>brainCells[13] = 1d;</v>
       </c>
       <c r="K56" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="3">
-        <v>0.819311554917875</v>
+        <v>0</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[15] = 0,819311554917875d;</v>
+        <v>brainCells[14] = 0d;</v>
       </c>
       <c r="K57" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>0.77136417466798701</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[16] = 0d;</v>
+        <v>brainCells[15] = 0,771364174667987d;</v>
       </c>
       <c r="K58" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3">
-        <v>0.180688445082125</v>
+        <v>0</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[17] = 0,180688445082125d;</v>
+        <v>brainCells[16] = 0d;</v>
       </c>
       <c r="K59" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="3">
-        <v>1</v>
+        <v>0.22863582533201299</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[18] = 1d;</v>
+        <v>brainCells[17] = 0,228635825332013d;</v>
       </c>
       <c r="K60" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[19] = 0d;</v>
+        <v>brainCells[18] = 1d;</v>
       </c>
       <c r="K61" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[20] = 1d;</v>
+        <v>brainCells[19] = 0d;</v>
       </c>
       <c r="K62" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="3">
-        <v>0</v>
+        <v>0.99999999999854505</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[21] = 0d;</v>
+        <v>brainCells[20] = 0,999999999998545d;</v>
       </c>
       <c r="K63" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="3">
-        <v>2.0816681700000001E-17</v>
+        <v>1.4551693183761999E-12</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[22] = 2,08166817E-17d;</v>
+        <v>brainCells[21] = 1,4551693183762E-12d;</v>
       </c>
       <c r="K64" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[23] = 1d;</v>
+        <v>brainCells[22] = 0d;</v>
       </c>
       <c r="K65" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[24] = 0d;</v>
+        <v>brainCells[23] = 1d;</v>
       </c>
       <c r="K66" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>2.0816681700000001E-17</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[25] = 0d;</v>
+        <v>brainCells[24] = 2,08166817E-17d;</v>
       </c>
       <c r="K67" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68" s="3">
-        <v>6.9388939000000003E-18</v>
+        <v>0</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[26] = 6,9388939E-18d;</v>
+        <v>brainCells[25] = 0d;</v>
       </c>
       <c r="K68" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[27] = 1d;</v>
+        <v>brainCells[26] = 0d;</v>
       </c>
       <c r="K69" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[28] = 0d;</v>
+        <v>brainCells[27] = 1d;</v>
       </c>
       <c r="K70" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[29] = 0d;</v>
+        <v>brainCells[28] = 0d;</v>
       </c>
       <c r="K71" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" s="3">
-        <v>0.53831087036526604</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[30] = 0,538310870365266d;</v>
+        <v>brainCells[29] = 5,55111512E-17d;</v>
       </c>
       <c r="K72" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" s="3">
-        <v>0.46168912963473402</v>
+        <v>0.53831087036751202</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[31] = 0,461689129634734d;</v>
+        <v>brainCells[30] = 0,538310870367512d;</v>
       </c>
       <c r="K73" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D74" s="3">
-        <v>0</v>
+        <v>0.46168912963248798</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[32] = 0d;</v>
+        <v>brainCells[31] = 0,461689129632488d;</v>
       </c>
       <c r="K74" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" s="3">
-        <v>0.76642268689775395</v>
+        <v>0</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[33] = 0,766422686897754d;</v>
+        <v>brainCells[32] = 0d;</v>
       </c>
       <c r="K75" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" s="3">
-        <v>0.233577313102246</v>
+        <v>0.76642268689775395</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[34] = 0,233577313102246d;</v>
+        <v>brainCells[33] = 0,766422686897754d;</v>
       </c>
       <c r="K76" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="3">
-        <v>0.96119945831742404</v>
+        <v>0.233577313102246</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[35] = 0,961199458317424d;</v>
+        <v>brainCells[34] = 0,233577313102246d;</v>
       </c>
       <c r="K77" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D78" s="3">
-        <v>3.8800541682576399E-2</v>
+        <v>0.96156671180506204</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[36] = 0,0388005416825764d;</v>
+        <v>brainCells[35] = 0,961566711805062d;</v>
       </c>
       <c r="K78" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D79" s="3">
-        <v>0.64227111586951602</v>
+        <v>3.8433288194937597E-2</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[37] = 0,642271115869516d;</v>
+        <v>brainCells[36] = 0,0384332881949376d;</v>
       </c>
       <c r="K79" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D80" s="3">
-        <v>0.35772888413048398</v>
+        <v>0.65820568260241996</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[38] = 0,357728884130484d;</v>
+        <v>brainCells[37] = 0,65820568260242d;</v>
       </c>
       <c r="K80" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>0.34179431739757998</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[39] = 0d;</v>
+        <v>brainCells[38] = 0,34179431739758d;</v>
       </c>
       <c r="K81" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[40] = 1d;</v>
+        <v>brainCells[39] = 0d;</v>
       </c>
       <c r="K82" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D83" s="3">
-        <v>1.1102230250000001E-16</v>
+        <v>1</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[41] = 1,110223025E-16d;</v>
+        <v>brainCells[40] = 1d;</v>
       </c>
       <c r="K83" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D84" s="3">
-        <v>0.71679482481552104</v>
+        <v>1.1102230250000001E-16</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[42] = 0,716794824815521d;</v>
+        <v>brainCells[41] = 1,110223025E-16d;</v>
       </c>
       <c r="K84" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D85" s="3">
-        <v>0.28320517518447902</v>
+        <v>0.817692827036126</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[43] = 0,283205175184479d;</v>
+        <v>brainCells[42] = 0,817692827036126d;</v>
       </c>
       <c r="K85" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D86" s="3">
-        <v>0</v>
+        <v>0.182307172963874</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[44] = 0d;</v>
+        <v>brainCells[43] = 0,182307172963874d;</v>
       </c>
       <c r="K86" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D87" s="3">
-        <v>1</v>
+        <v>2.2551405200000002E-17</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[45] = 1d;</v>
+        <v>brainCells[44] = 2,25514052E-17d;</v>
       </c>
       <c r="K87" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D88" s="3">
-        <v>0</v>
+        <v>0.99999999999854505</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[46] = 0d;</v>
+        <v>brainCells[45] = 0,999999999998545d;</v>
       </c>
       <c r="K88" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D89" s="3">
         <v>0</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[47] = 0d;</v>
+        <v>brainCells[46] = 0d;</v>
       </c>
       <c r="K89" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D90" s="3">
-        <v>0</v>
+        <v>1.4551693183761999E-12</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[48] = 0d;</v>
+        <v>brainCells[47] = 1,4551693183762E-12d;</v>
       </c>
       <c r="K90" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D91" s="3">
-        <v>0.65424403705307099</v>
+        <v>0</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[49] = 0,654244037053071d;</v>
+        <v>brainCells[48] = 0d;</v>
       </c>
       <c r="K91" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92" s="3">
-        <v>0.34575596294692901</v>
+        <v>0.65384592359677096</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[50] = 0,345755962946929d;</v>
+        <v>brainCells[49] = 0,653845923596771d;</v>
       </c>
       <c r="K92" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D93" s="3">
-        <v>0</v>
+        <v>0.34615407640322898</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[51] = 0d;</v>
+        <v>brainCells[50] = 0,346154076403229d;</v>
       </c>
       <c r="K93" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[52] = 0d;</v>
+        <v>brainCells[51] = 0d;</v>
       </c>
       <c r="K94" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D95" s="3">
-        <v>0.41974411731062</v>
+        <v>0</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[53] = 0,41974411731062d;</v>
+        <v>brainCells[52] = 0d;</v>
       </c>
       <c r="K95" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D96" s="3">
-        <v>0.58025588268938</v>
+        <v>0.541719553021906</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[54] = 0,58025588268938d;</v>
+        <v>brainCells[53] = 0,541719553021906d;</v>
       </c>
       <c r="K96" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D97" s="3">
-        <v>9.0205620800000006E-17</v>
+        <v>0.458280446978094</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[55] = 9,02056208E-17d;</v>
+        <v>brainCells[54] = 0,458280446978094d;</v>
       </c>
       <c r="K97" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D98" s="3">
-        <v>1</v>
+        <v>9.0205620800000006E-17</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[56] = 1d;</v>
+        <v>brainCells[55] = 9,02056208E-17d;</v>
       </c>
       <c r="K98" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D99" s="3">
-        <v>2.2551405200000002E-17</v>
+        <v>1</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[57] = 2,25514052E-17d;</v>
+        <v>brainCells[56] = 1d;</v>
       </c>
       <c r="K99" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D100" s="3">
-        <v>1</v>
+        <v>2.2551405200000002E-17</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[58] = 1d;</v>
+        <v>brainCells[57] = 2,25514052E-17d;</v>
       </c>
       <c r="K100" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D101" s="3">
-        <v>5.5511151200000003E-17</v>
+        <v>1</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[59] = 5,55111512E-17d;</v>
+        <v>brainCells[58] = 1d;</v>
       </c>
       <c r="K101" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D102" s="3">
-        <v>1</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[60] = 1d;</v>
+        <v>brainCells[59] = 5,55111512E-17d;</v>
       </c>
       <c r="K102" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[61] = 0d;</v>
+        <v>brainCells[60] = 1d;</v>
       </c>
       <c r="K103" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D104" s="3">
-        <v>0.63752092403593497</v>
+        <v>0</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[62] = 0,637520924035935d;</v>
+        <v>brainCells[61] = 0d;</v>
       </c>
       <c r="K104" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C105">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D105" s="3">
-        <v>0.36247907596406498</v>
+        <v>0.63752092403593497</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[63] = 0,362479075964065d;</v>
+        <v>brainCells[62] = 0,637520924035935d;</v>
       </c>
       <c r="K105" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C106">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D106" s="3">
-        <v>0.37939217827447702</v>
+        <v>0.36247907596406498</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" ref="E106:E129" si="3">"brainCells["&amp;C106&amp;"] = "&amp;D106&amp;"d;"</f>
-        <v>brainCells[64] = 0,379392178274477d;</v>
+        <f t="shared" si="2"/>
+        <v>brainCells[63] = 0,362479075964065d;</v>
       </c>
       <c r="K106" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C107">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D107" s="3">
-        <v>0.62060782172552298</v>
+        <v>0.27846099993088602</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="3"/>
-        <v>brainCells[65] = 0,620607821725523d;</v>
+        <f t="shared" ref="E107:E130" si="3">"brainCells["&amp;C107&amp;"] = "&amp;D107&amp;"d;"</f>
+        <v>brainCells[64] = 0,278460999930886d;</v>
       </c>
       <c r="K107" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D108" s="3">
-        <v>0</v>
+        <v>0.72153900006911398</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[66] = 0d;</v>
+        <v>brainCells[65] = 0,721539000069114d;</v>
       </c>
       <c r="K108" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C109">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D109" s="3">
-        <v>0.229865222177881</v>
+        <v>0</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[67] = 0,229865222177881d;</v>
+        <v>brainCells[66] = 0d;</v>
       </c>
       <c r="K109" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C110">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>0.230844564815925</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[68] = 0d;</v>
+        <v>brainCells[67] = 0,230844564815925d;</v>
       </c>
       <c r="K110" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C111">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D111" s="3">
-        <v>0.77013477782211903</v>
+        <v>0</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[69] = 0,770134777822119d;</v>
+        <v>brainCells[68] = 0d;</v>
       </c>
       <c r="K111" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C112">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D112" s="3">
-        <v>0</v>
+        <v>0.76915543518407503</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[70] = 0d;</v>
+        <v>brainCells[69] = 0,769155435184075d;</v>
       </c>
       <c r="K112" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C113">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D113" s="3">
-        <v>5.5511151200000003E-17</v>
+        <v>0</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[71] = 5,55111512E-17d;</v>
+        <v>brainCells[70] = 0d;</v>
       </c>
       <c r="K113" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C114">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D114" s="3">
-        <v>0</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[72] = 0d;</v>
+        <v>brainCells[71] = 5,55111512E-17d;</v>
       </c>
       <c r="K114" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C115">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[73] = 1d;</v>
+        <v>brainCells[72] = 0d;</v>
       </c>
       <c r="K115" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C116">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[74] = 0d;</v>
+        <v>brainCells[73] = 1d;</v>
       </c>
       <c r="K116" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C117">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D117" s="3">
-        <v>2.7755575600000001E-17</v>
+        <v>0</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[75] = 2,77555756E-17d;</v>
+        <v>brainCells[74] = 0d;</v>
       </c>
       <c r="K117" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C118">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D118" s="3">
-        <v>1</v>
+        <v>2.7755575600000001E-17</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[76] = 1d;</v>
+        <v>brainCells[75] = 2,77555756E-17d;</v>
       </c>
       <c r="K118" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C119">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D119" s="3">
-        <v>0.53272930324670398</v>
+        <v>1</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[77] = 0,532729303246704d;</v>
+        <v>brainCells[76] = 1d;</v>
       </c>
       <c r="K119" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C120">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D120" s="3">
-        <v>0.46727069675329602</v>
+        <v>0.53272930324670398</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[78] = 0,467270696753296d;</v>
+        <v>brainCells[77] = 0,532729303246704d;</v>
       </c>
       <c r="K120" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C121">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D121" s="3">
-        <v>0</v>
+        <v>0.46727069675329602</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[79] = 0d;</v>
+        <v>brainCells[78] = 0,467270696753296d;</v>
       </c>
       <c r="K121" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C122">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[80] = 1d;</v>
+        <v>brainCells[79] = 0d;</v>
       </c>
       <c r="K122" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C123">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[81] = 0d;</v>
+        <v>brainCells[80] = 1d;</v>
       </c>
       <c r="K123" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C124">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D124" s="3">
-        <v>9.6557774587630193E-2</v>
+        <v>0</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[82] = 0,0965577745876302d;</v>
+        <v>brainCells[81] = 0d;</v>
       </c>
       <c r="K124" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C125">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D125" s="3">
-        <v>0.90344222541236996</v>
+        <v>9.6557774587630193E-2</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[83] = 0,90344222541237d;</v>
+        <v>brainCells[82] = 0,0965577745876302d;</v>
       </c>
       <c r="K125" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C126">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D126" s="3">
-        <v>5.5511151200000003E-17</v>
+        <v>0.90344222541236996</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[84] = 5,55111512E-17d;</v>
+        <v>brainCells[83] = 0,90344222541237d;</v>
       </c>
       <c r="K126" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C127">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D127" s="3">
-        <v>1</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[85] = 1d;</v>
+        <v>brainCells[84] = 5,55111512E-17d;</v>
       </c>
       <c r="K127" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C128">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D128" s="3">
-        <v>6.2450045100000003E-17</v>
+        <v>1</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[86] = 6,24500451E-17d;</v>
+        <v>brainCells[85] = 1d;</v>
       </c>
       <c r="K128" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="129" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C129">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D129" s="3">
-        <v>1</v>
+        <v>6.2450045100000003E-17</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="3"/>
+        <v>brainCells[86] = 6,24500451E-17d;</v>
+      </c>
+      <c r="K129" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="130" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>87</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="3"/>
         <v>brainCells[87] = 1d;</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K130" t="s">
         <v>4561</v>
       </c>
     </row>
@@ -60488,7 +60758,7 @@
   <sortState ref="B3:CM33">
     <sortCondition ref="C3:C33"/>
   </sortState>
-  <conditionalFormatting sqref="D36 F36 H36 X36:AG36 CL36:CM36 BT36 BV36:CB36 CE36:CI36 R36:U36 AV36:AZ36 BD36:BR36 D3:CM35">
+  <conditionalFormatting sqref="D37 F37 H37 Y37:Z37 CL37 BT37 BV37:BX37 CE37 R37:U37 AV37 BD37:BG37 D3:CM36 AB37:AD37 AF37:AG37 AX37:AZ37 BZ37:CA37 CG37:CH37 BI37 BK37 BM37:BR37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -60518,7 +60788,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36 F36 H36 X36:AG36 CL36:CM36 BT36 BV36:CB36 CE36:CI36 R36:U36 AV36:AZ36 BD36:BR36 D3:CM35</xm:sqref>
+          <xm:sqref>D37 F37 H37 Y37:Z37 CL37 BT37 BV37:BX37 CE37 R37:U37 AV37 BD37:BG37 D3:CM36 AB37:AD37 AF37:AG37 AX37:AZ37 BZ37:CA37 CG37:CH37 BI37 BK37 BM37:BR37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Probability/Analysis_Best.xlsx
+++ b/Probability/Analysis_Best.xlsx
@@ -26,7 +26,7 @@
     <author>Vartotojas</author>
   </authors>
   <commentList>
-    <comment ref="CB35" authorId="0">
+    <comment ref="CB36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI35" authorId="0">
+    <comment ref="CI36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13804,7 +13804,7 @@
     <t>Avg 10</t>
   </si>
   <si>
-    <t>Best -0,000001777634</t>
+    <t>Best -0,000000001930</t>
   </si>
 </sst>
 </file>
@@ -49033,10 +49033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:CM130"/>
+  <dimension ref="B2:CM131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58021,2736 +58021,3006 @@
       </c>
     </row>
     <row r="35" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35">
+        <v>-1.9300000000000002E-9</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.61538459359238595</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.38461540640761399</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.384615384616041</v>
+      </c>
+      <c r="J35">
+        <v>0.115384615384392</v>
+      </c>
+      <c r="K35">
+        <v>0.49999999999956801</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0.77136417466798701</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0.22863582533201299</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>2.0816681700000001E-17</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0.53846153119723705</v>
+      </c>
+      <c r="AI35">
+        <v>0.461538468802763</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0.76642268689775395</v>
+      </c>
+      <c r="AL35">
+        <v>0.233577313102246</v>
+      </c>
+      <c r="AM35">
+        <v>0.96153844519430998</v>
+      </c>
+      <c r="AN35">
+        <v>3.8461554805689899E-2</v>
+      </c>
+      <c r="AO35">
+        <v>0.65820568260241996</v>
+      </c>
+      <c r="AP35">
+        <v>0.34179431739757998</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
+      <c r="AU35">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>2.7755575600000001E-17</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0.65384615384483902</v>
+      </c>
+      <c r="BB35">
+        <v>0.34615384615323502</v>
+      </c>
+      <c r="BC35">
+        <v>1.9256818362123001E-12</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0.51671955302190598</v>
+      </c>
+      <c r="BF35">
+        <v>0.48328044697809402</v>
+      </c>
+      <c r="BG35">
+        <v>9.0205620800000006E-17</v>
+      </c>
+      <c r="BH35">
+        <v>1</v>
+      </c>
+      <c r="BI35">
+        <v>2.2551405200000002E-17</v>
+      </c>
+      <c r="BJ35">
+        <v>1</v>
+      </c>
+      <c r="BK35">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="BL35">
+        <v>1</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0.63752092403593497</v>
+      </c>
+      <c r="BO35">
+        <v>0.36247907596406498</v>
+      </c>
+      <c r="BP35">
+        <v>9.6153846153174502E-2</v>
+      </c>
+      <c r="BQ35">
+        <v>0.90384615384682598</v>
+      </c>
+      <c r="BR35">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>0.230769187184342</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>0.76923081281565797</v>
+      </c>
+      <c r="BV35">
+        <v>0</v>
+      </c>
+      <c r="BW35">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="BX35">
+        <v>0</v>
+      </c>
+      <c r="BY35">
+        <v>1</v>
+      </c>
+      <c r="BZ35">
+        <v>0</v>
+      </c>
+      <c r="CA35">
+        <v>0</v>
+      </c>
+      <c r="CB35">
+        <v>1</v>
+      </c>
+      <c r="CC35">
+        <v>0.17761475414858</v>
+      </c>
+      <c r="CD35">
+        <v>0.82238524585142003</v>
+      </c>
+      <c r="CE35">
+        <v>0</v>
+      </c>
+      <c r="CF35">
+        <v>1</v>
+      </c>
+      <c r="CG35">
+        <v>0</v>
+      </c>
+      <c r="CH35">
+        <v>7.9079661820354294E-2</v>
+      </c>
+      <c r="CI35">
+        <v>0.92092033817964603</v>
+      </c>
+      <c r="CJ35">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="CK35">
+        <v>1</v>
+      </c>
+      <c r="CL35">
+        <v>6.2450045100000003E-17</v>
+      </c>
+      <c r="CM35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>4572</v>
       </c>
-      <c r="D35">
-        <f t="shared" ref="D35:BO35" si="0">AVERAGE(D24:D33)</f>
+      <c r="D36">
+        <f t="shared" ref="D36:BO36" si="0">AVERAGE(D24:D33)</f>
         <v>1.305461407755506E-3</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>0.64486974754115323</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>2.2551405200000001E-18</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <f t="shared" si="0"/>
         <v>0.35382479105109127</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>1.4551693183762E-13</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <f t="shared" si="0"/>
         <v>0.37938911197378361</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>5.6575786912613078E-2</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <f t="shared" si="0"/>
         <v>0.56403510111345778</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <f t="shared" si="0"/>
         <v>0.85678219212443862</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <f t="shared" si="0"/>
         <v>0.10565755021788223</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <f t="shared" si="0"/>
         <v>3.7560257657679251E-2</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <f t="shared" si="0"/>
         <v>0.90748034282404111</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <f t="shared" si="0"/>
         <v>9.251965717595903E-2</v>
       </c>
-      <c r="Q35">
+      <c r="Q36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R35">
+      <c r="R36">
         <f t="shared" si="0"/>
         <v>4.7184478550000006E-17</v>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f t="shared" si="0"/>
         <v>0.9129756463505887</v>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f t="shared" si="0"/>
         <v>4.5088446721534003E-3</v>
       </c>
-      <c r="U35">
+      <c r="U36">
         <f t="shared" si="0"/>
         <v>8.2515508977257832E-2</v>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f t="shared" si="0"/>
         <v>0.84281728909782605</v>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f t="shared" si="0"/>
         <v>0.15718271090217417</v>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f t="shared" si="0"/>
         <v>2.7755575610000003E-17</v>
       </c>
-      <c r="Z35">
+      <c r="Z36">
         <f t="shared" si="0"/>
         <v>3.1824057278307002E-13</v>
       </c>
-      <c r="AA35">
+      <c r="AA36">
         <f t="shared" si="0"/>
         <v>0.99999999999968181</v>
       </c>
-      <c r="AB35">
+      <c r="AB36">
         <f t="shared" si="0"/>
         <v>2.7668839440000001E-17</v>
       </c>
-      <c r="AC35">
+      <c r="AC36">
         <f t="shared" si="0"/>
         <v>1.1379040619999999E-17</v>
       </c>
-      <c r="AD35">
+      <c r="AD36">
         <f t="shared" si="0"/>
         <v>1.4571677200000002E-17</v>
       </c>
-      <c r="AE35">
+      <c r="AE36">
         <f t="shared" si="0"/>
         <v>0.99999999999991795</v>
       </c>
-      <c r="AF35">
+      <c r="AF36">
         <f t="shared" si="0"/>
         <v>8.2085727104439996E-14</v>
       </c>
-      <c r="AG35">
+      <c r="AG36">
         <f t="shared" si="0"/>
         <v>6.9388939000000003E-19</v>
       </c>
-      <c r="AH35">
+      <c r="AH36">
         <f t="shared" si="0"/>
         <v>0.57821672424632065</v>
       </c>
-      <c r="AI35">
+      <c r="AI36">
         <f t="shared" si="0"/>
         <v>0.4148593746029488</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ36">
         <f t="shared" si="0"/>
         <v>6.9239011507306793E-3</v>
       </c>
-      <c r="AK35">
+      <c r="AK36">
         <f t="shared" si="0"/>
         <v>0.52902352409382525</v>
       </c>
-      <c r="AL35">
+      <c r="AL36">
         <f t="shared" si="0"/>
         <v>0.47097647590617486</v>
       </c>
-      <c r="AM35">
+      <c r="AM36">
         <f t="shared" si="0"/>
         <v>0.91563524660425311</v>
       </c>
-      <c r="AN35">
+      <c r="AN36">
         <f t="shared" si="0"/>
         <v>8.4364753395747047E-2</v>
       </c>
-      <c r="AO35">
+      <c r="AO36">
         <f t="shared" si="0"/>
         <v>0.49957100839779034</v>
       </c>
-      <c r="AP35">
+      <c r="AP36">
         <f t="shared" si="0"/>
         <v>0.46451984389394979</v>
       </c>
-      <c r="AQ35">
+      <c r="AQ36">
         <f t="shared" si="0"/>
         <v>3.5909147708259828E-2</v>
       </c>
-      <c r="AR35">
+      <c r="AR36">
         <f t="shared" si="0"/>
         <v>0.67939304957191127</v>
       </c>
-      <c r="AS35">
+      <c r="AS36">
         <f t="shared" si="0"/>
         <v>0.32060695042808895</v>
       </c>
-      <c r="AT35">
+      <c r="AT36">
         <f t="shared" si="0"/>
         <v>0.78345016612621421</v>
       </c>
-      <c r="AU35">
+      <c r="AU36">
         <f t="shared" si="0"/>
         <v>0.21654983387378576</v>
       </c>
-      <c r="AV35">
+      <c r="AV36">
         <f t="shared" si="0"/>
         <v>3.0531133180000004E-17</v>
       </c>
-      <c r="AW35">
+      <c r="AW36">
         <f t="shared" si="0"/>
         <v>0.99999999999975897</v>
       </c>
-      <c r="AX35">
+      <c r="AX36">
         <f t="shared" si="0"/>
         <v>9.5609631323160006E-14</v>
       </c>
-      <c r="AY35">
+      <c r="AY36">
         <f t="shared" si="0"/>
         <v>1.4552629934439002E-13</v>
       </c>
-      <c r="AZ35">
+      <c r="AZ36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BA35">
+      <c r="BA36">
         <f t="shared" si="0"/>
         <v>0.68842116180542656</v>
       </c>
-      <c r="BB35">
+      <c r="BB36">
         <f t="shared" si="0"/>
         <v>0.16946135922719927</v>
       </c>
-      <c r="BC35">
+      <c r="BC36">
         <f t="shared" si="0"/>
         <v>0.14211747896737412</v>
       </c>
-      <c r="BD35">
+      <c r="BD36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BE35">
+      <c r="BE36">
         <f t="shared" si="0"/>
         <v>0.72797698415693457</v>
       </c>
-      <c r="BF35">
+      <c r="BF36">
         <f t="shared" si="0"/>
         <v>0.27202301584306554</v>
       </c>
-      <c r="BG35">
+      <c r="BG36">
         <f t="shared" si="0"/>
         <v>0.29416705973465856</v>
       </c>
-      <c r="BH35">
+      <c r="BH36">
         <f t="shared" si="0"/>
         <v>0.70583294026534138</v>
       </c>
-      <c r="BI35">
+      <c r="BI36">
         <f t="shared" si="0"/>
         <v>7.0697316741295924E-2</v>
       </c>
-      <c r="BJ35">
+      <c r="BJ36">
         <f t="shared" si="0"/>
         <v>0.92930268325870391</v>
       </c>
-      <c r="BK35">
+      <c r="BK36">
         <f t="shared" si="0"/>
         <v>1.4552248295274E-13</v>
       </c>
-      <c r="BL35">
+      <c r="BL36">
         <f t="shared" si="0"/>
         <v>0.9673865012485614</v>
       </c>
-      <c r="BM35">
+      <c r="BM36">
         <f t="shared" si="0"/>
         <v>3.2613498751293296E-2</v>
       </c>
-      <c r="BN35">
+      <c r="BN36">
         <f t="shared" si="0"/>
         <v>0.54066986965335795</v>
       </c>
-      <c r="BO35">
+      <c r="BO36">
         <f t="shared" si="0"/>
         <v>0.45933013034664205</v>
       </c>
-      <c r="BP35">
-        <f t="shared" ref="BP35:CM35" si="1">AVERAGE(BP24:BP33)</f>
+      <c r="BP36">
+        <f t="shared" ref="BP36:CM36" si="1">AVERAGE(BP24:BP33)</f>
         <v>0.30972082645060028</v>
       </c>
-      <c r="BQ35">
+      <c r="BQ36">
         <f t="shared" si="1"/>
         <v>0.69027917354939983</v>
       </c>
-      <c r="BR35">
+      <c r="BR36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BS35">
+      <c r="BS36">
         <f t="shared" si="1"/>
         <v>0.29235041789743343</v>
       </c>
-      <c r="BT35">
+      <c r="BT36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BU35">
+      <c r="BU36">
         <f t="shared" si="1"/>
         <v>0.70764958210256657</v>
       </c>
-      <c r="BV35">
+      <c r="BV36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BW35">
+      <c r="BW36">
         <f t="shared" si="1"/>
         <v>3.2265856650000007E-17</v>
       </c>
-      <c r="BX35">
+      <c r="BX36">
         <f t="shared" si="1"/>
         <v>9.5365976574002287E-9</v>
       </c>
-      <c r="BY35">
+      <c r="BY36">
         <f t="shared" si="1"/>
         <v>0.99999999046340238</v>
       </c>
-      <c r="BZ35">
+      <c r="BZ36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CA35">
+      <c r="CA36">
         <f t="shared" si="1"/>
         <v>2.3688136692081137E-2</v>
       </c>
-      <c r="CB35">
+      <c r="CB36">
         <f t="shared" si="1"/>
         <v>0.97631186330791875</v>
       </c>
-      <c r="CC35">
+      <c r="CC36">
         <f t="shared" si="1"/>
         <v>0.26419132633274672</v>
       </c>
-      <c r="CD35">
+      <c r="CD36">
         <f t="shared" si="1"/>
         <v>0.73580867366725333</v>
       </c>
-      <c r="CE35">
+      <c r="CE36">
         <f t="shared" si="1"/>
         <v>4.9960036110000007E-17</v>
       </c>
-      <c r="CF35">
+      <c r="CF36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="CG35">
+      <c r="CG36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CH35">
+      <c r="CH36">
         <f t="shared" si="1"/>
         <v>0.14320393236240408</v>
       </c>
-      <c r="CI35">
+      <c r="CI36">
         <f t="shared" si="1"/>
         <v>0.85679606763759608</v>
       </c>
-      <c r="CJ35">
+      <c r="CJ36">
         <f t="shared" si="1"/>
         <v>0.55868075628839664</v>
       </c>
-      <c r="CK35">
+      <c r="CK36">
         <f t="shared" si="1"/>
         <v>0.44131924371160336</v>
       </c>
-      <c r="CL35">
+      <c r="CL36">
         <f t="shared" si="1"/>
         <v>3.2612801330000001E-17</v>
       </c>
-      <c r="CM35">
+      <c r="CM36">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>4571</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0.61493261108937702</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0.38506738891062298</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0.38474801235225098</v>
-      </c>
-      <c r="J36">
-        <v>0.11525198764774899</v>
-      </c>
-      <c r="K36">
-        <v>0.5</v>
-      </c>
-      <c r="L36">
-        <v>0.99999999999708999</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>2.9103386367523999E-12</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>5.5511151200000003E-17</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0.819311554917875</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0.180688445082125</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>2.0816681700000001E-17</v>
-      </c>
-      <c r="AA36">
-        <v>1</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>6.9388939000000003E-18</v>
-      </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0.53831087036526604</v>
-      </c>
-      <c r="AI36">
-        <v>0.46168912963473402</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0.76642268689775395</v>
-      </c>
-      <c r="AL36">
-        <v>0.233577313102246</v>
-      </c>
-      <c r="AM36">
-        <v>0.96119945831742404</v>
-      </c>
-      <c r="AN36">
-        <v>3.8800541682576399E-2</v>
-      </c>
-      <c r="AO36">
-        <v>0.64227111586951602</v>
-      </c>
-      <c r="AP36">
-        <v>0.35772888413048398</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>1</v>
-      </c>
-      <c r="AS36">
-        <v>1.1102230250000001E-16</v>
-      </c>
-      <c r="AT36">
-        <v>0.71679482481552104</v>
-      </c>
-      <c r="AU36">
-        <v>0.28320517518447902</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>0.65424403705307099</v>
-      </c>
-      <c r="BB36">
-        <v>0.34575596294692901</v>
-      </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <v>0.41974411731062</v>
-      </c>
-      <c r="BF36">
-        <v>0.58025588268938</v>
-      </c>
-      <c r="BG36">
-        <v>9.0205620800000006E-17</v>
-      </c>
-      <c r="BH36">
-        <v>1</v>
-      </c>
-      <c r="BI36">
-        <v>2.2551405200000002E-17</v>
-      </c>
-      <c r="BJ36">
-        <v>1</v>
-      </c>
-      <c r="BK36">
-        <v>5.5511151200000003E-17</v>
-      </c>
-      <c r="BL36">
-        <v>1</v>
-      </c>
-      <c r="BM36">
-        <v>0</v>
-      </c>
-      <c r="BN36">
-        <v>0.63752092403593497</v>
-      </c>
-      <c r="BO36">
-        <v>0.36247907596406498</v>
-      </c>
-      <c r="BP36">
-        <v>0.37939217827447702</v>
-      </c>
-      <c r="BQ36">
-        <v>0.62060782172552298</v>
-      </c>
-      <c r="BR36">
-        <v>0</v>
-      </c>
-      <c r="BS36">
-        <v>0.229865222177881</v>
-      </c>
-      <c r="BT36">
-        <v>0</v>
-      </c>
-      <c r="BU36">
-        <v>0.77013477782211903</v>
-      </c>
-      <c r="BV36">
-        <v>0</v>
-      </c>
-      <c r="BW36">
-        <v>5.5511151200000003E-17</v>
-      </c>
-      <c r="BX36">
-        <v>0</v>
-      </c>
-      <c r="BY36">
-        <v>1</v>
-      </c>
-      <c r="BZ36">
-        <v>0</v>
-      </c>
-      <c r="CA36">
-        <v>2.7755575600000001E-17</v>
-      </c>
-      <c r="CB36">
-        <v>1</v>
-      </c>
-      <c r="CC36">
-        <v>0.53272930324670398</v>
-      </c>
-      <c r="CD36">
-        <v>0.46727069675329602</v>
-      </c>
-      <c r="CE36">
-        <v>0</v>
-      </c>
-      <c r="CF36">
-        <v>1</v>
-      </c>
-      <c r="CG36">
-        <v>0</v>
-      </c>
-      <c r="CH36">
-        <v>0</v>
-      </c>
-      <c r="CI36">
-        <v>1</v>
-      </c>
-      <c r="CJ36">
-        <v>5.5511151200000003E-17</v>
-      </c>
-      <c r="CK36">
-        <v>1</v>
-      </c>
-      <c r="CL36">
-        <v>6.2450045100000003E-17</v>
-      </c>
-      <c r="CM36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0.61493261108937702</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.38506738891062298</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.38474801235225098</v>
+      </c>
+      <c r="J37">
+        <v>0.11525198764774899</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37">
+        <v>0.99999999999708999</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2.9103386367523999E-12</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0.819311554917875</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0.180688445082125</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>2.0816681700000001E-17</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>6.9388939000000003E-18</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0.53831087036526604</v>
+      </c>
+      <c r="AI37">
+        <v>0.46168912963473402</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0.76642268689775395</v>
+      </c>
+      <c r="AL37">
+        <v>0.233577313102246</v>
+      </c>
+      <c r="AM37">
+        <v>0.96119945831742404</v>
+      </c>
+      <c r="AN37">
+        <v>3.8800541682576399E-2</v>
+      </c>
+      <c r="AO37">
+        <v>0.64227111586951602</v>
+      </c>
+      <c r="AP37">
+        <v>0.35772888413048398</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>1.1102230250000001E-16</v>
+      </c>
+      <c r="AT37">
+        <v>0.71679482481552104</v>
+      </c>
+      <c r="AU37">
+        <v>0.28320517518447902</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0.65424403705307099</v>
+      </c>
+      <c r="BB37">
+        <v>0.34575596294692901</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0.41974411731062</v>
+      </c>
+      <c r="BF37">
+        <v>0.58025588268938</v>
+      </c>
+      <c r="BG37">
+        <v>9.0205620800000006E-17</v>
+      </c>
+      <c r="BH37">
+        <v>1</v>
+      </c>
+      <c r="BI37">
+        <v>2.2551405200000002E-17</v>
+      </c>
+      <c r="BJ37">
+        <v>1</v>
+      </c>
+      <c r="BK37">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="BL37">
+        <v>1</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0.63752092403593497</v>
+      </c>
+      <c r="BO37">
+        <v>0.36247907596406498</v>
+      </c>
+      <c r="BP37">
+        <v>0.37939217827447702</v>
+      </c>
+      <c r="BQ37">
+        <v>0.62060782172552298</v>
+      </c>
+      <c r="BR37">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>0.229865222177881</v>
+      </c>
+      <c r="BT37">
+        <v>0</v>
+      </c>
+      <c r="BU37">
+        <v>0.77013477782211903</v>
+      </c>
+      <c r="BV37">
+        <v>0</v>
+      </c>
+      <c r="BW37">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="BX37">
+        <v>0</v>
+      </c>
+      <c r="BY37">
+        <v>1</v>
+      </c>
+      <c r="BZ37">
+        <v>0</v>
+      </c>
+      <c r="CA37">
+        <v>2.7755575600000001E-17</v>
+      </c>
+      <c r="CB37">
+        <v>1</v>
+      </c>
+      <c r="CC37">
+        <v>0.53272930324670398</v>
+      </c>
+      <c r="CD37">
+        <v>0.46727069675329602</v>
+      </c>
+      <c r="CE37">
+        <v>0</v>
+      </c>
+      <c r="CF37">
+        <v>1</v>
+      </c>
+      <c r="CG37">
+        <v>0</v>
+      </c>
+      <c r="CH37">
+        <v>0</v>
+      </c>
+      <c r="CI37">
+        <v>1</v>
+      </c>
+      <c r="CJ37">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="CK37">
+        <v>1</v>
+      </c>
+      <c r="CL37">
+        <v>6.2450045100000003E-17</v>
+      </c>
+      <c r="CM37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>4563</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
         <v>4570</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>4570</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
         <v>4570</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J38" t="s">
         <v>4570</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K38" t="s">
         <v>4570</v>
       </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
         <v>4570</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
         <v>4570</v>
       </c>
-      <c r="V37" t="s">
+      <c r="V38" t="s">
         <v>4569</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W38" t="s">
         <v>4569</v>
       </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>1</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>1</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="s">
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="s">
         <v>4570</v>
       </c>
-      <c r="AI37" t="s">
+      <c r="AI38" t="s">
         <v>4570</v>
       </c>
-      <c r="AJ37" t="s">
+      <c r="AJ38" t="s">
         <v>4570</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AK38" t="s">
         <v>4569</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AL38" t="s">
         <v>4569</v>
       </c>
-      <c r="AM37" t="s">
+      <c r="AM38" t="s">
         <v>4569</v>
       </c>
-      <c r="AN37" t="s">
+      <c r="AN38" t="s">
         <v>4569</v>
       </c>
-      <c r="AO37" t="s">
+      <c r="AO38" t="s">
         <v>4570</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="AP38" t="s">
         <v>4570</v>
       </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>1</v>
-      </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="s">
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>1</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="s">
         <v>4570</v>
       </c>
-      <c r="AU37" t="s">
+      <c r="AU38" t="s">
         <v>4570</v>
       </c>
-      <c r="AV37">
-        <v>0</v>
-      </c>
-      <c r="AW37">
-        <v>1</v>
-      </c>
-      <c r="AX37">
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
-      <c r="BA37" t="s">
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="s">
         <v>4570</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BB38" t="s">
         <v>4570</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BC38" t="s">
         <v>4570</v>
       </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
-      <c r="BE37" t="s">
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="s">
         <v>4570</v>
       </c>
-      <c r="BF37" t="s">
+      <c r="BF38" t="s">
         <v>4570</v>
       </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>1</v>
-      </c>
-      <c r="BI37">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>1</v>
-      </c>
-      <c r="BK37">
-        <v>0</v>
-      </c>
-      <c r="BL37">
-        <v>1</v>
-      </c>
-      <c r="BM37">
-        <v>0</v>
-      </c>
-      <c r="BN37" t="s">
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>1</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>1</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>1</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38" t="s">
         <v>4569</v>
       </c>
-      <c r="BO37" t="s">
+      <c r="BO38" t="s">
         <v>4569</v>
       </c>
-      <c r="BP37" t="s">
+      <c r="BP38" t="s">
         <v>4570</v>
       </c>
-      <c r="BQ37" t="s">
+      <c r="BQ38" t="s">
         <v>4570</v>
       </c>
-      <c r="BR37">
-        <v>0</v>
-      </c>
-      <c r="BS37" t="s">
+      <c r="BR38">
+        <v>0</v>
+      </c>
+      <c r="BS38" t="s">
         <v>4570</v>
       </c>
-      <c r="BT37">
-        <v>0</v>
-      </c>
-      <c r="BU37" t="s">
+      <c r="BT38">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="s">
         <v>4570</v>
       </c>
-      <c r="BV37">
-        <v>0</v>
-      </c>
-      <c r="BW37">
-        <v>0</v>
-      </c>
-      <c r="BX37">
-        <v>0</v>
-      </c>
-      <c r="BY37">
-        <v>1</v>
-      </c>
-      <c r="BZ37">
-        <v>0</v>
-      </c>
-      <c r="CA37">
-        <v>0</v>
-      </c>
-      <c r="CB37">
-        <v>1</v>
-      </c>
-      <c r="CC37" t="s">
+      <c r="BV38">
+        <v>0</v>
+      </c>
+      <c r="BW38">
+        <v>0</v>
+      </c>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="BY38">
+        <v>1</v>
+      </c>
+      <c r="BZ38">
+        <v>0</v>
+      </c>
+      <c r="CA38">
+        <v>0</v>
+      </c>
+      <c r="CB38">
+        <v>1</v>
+      </c>
+      <c r="CC38" t="s">
         <v>4569</v>
       </c>
-      <c r="CD37" t="s">
+      <c r="CD38" t="s">
         <v>4569</v>
       </c>
-      <c r="CE37">
-        <v>0</v>
-      </c>
-      <c r="CF37">
-        <v>1</v>
-      </c>
-      <c r="CG37">
-        <v>0</v>
-      </c>
-      <c r="CH37">
-        <v>0</v>
-      </c>
-      <c r="CI37">
-        <v>1</v>
-      </c>
-      <c r="CJ37" t="s">
+      <c r="CE38">
+        <v>0</v>
+      </c>
+      <c r="CF38">
+        <v>1</v>
+      </c>
+      <c r="CG38">
+        <v>0</v>
+      </c>
+      <c r="CH38">
+        <v>0</v>
+      </c>
+      <c r="CI38">
+        <v>1</v>
+      </c>
+      <c r="CJ38" t="s">
         <v>4569</v>
       </c>
-      <c r="CK37" t="s">
+      <c r="CK38" t="s">
         <v>4569</v>
       </c>
-      <c r="CL37">
-        <v>0</v>
-      </c>
-      <c r="CM37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="5" t="s">
+      <c r="CL38">
+        <v>0</v>
+      </c>
+      <c r="CM38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="5" t="s">
         <v>4564</v>
       </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
         <v>2</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7">
-        <v>1</v>
-      </c>
-      <c r="K38" s="7">
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="7">
         <v>2</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="M38" s="6">
-        <v>1</v>
-      </c>
-      <c r="N38" s="6">
+      <c r="M39" s="6">
+        <v>1</v>
+      </c>
+      <c r="N39" s="6">
         <v>2</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="P38" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="6" t="s">
+      <c r="P39" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R39" s="6">
         <v>2</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="S39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="T38" s="7">
-        <v>1</v>
-      </c>
-      <c r="U38" s="7">
+      <c r="T39" s="7">
+        <v>1</v>
+      </c>
+      <c r="U39" s="7">
         <v>2</v>
       </c>
-      <c r="V38" s="6" t="s">
+      <c r="V39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="W38" s="6">
-        <v>1</v>
-      </c>
-      <c r="X38" s="7" t="s">
+      <c r="W39" s="6">
+        <v>1</v>
+      </c>
+      <c r="X39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Y39" s="8">
         <v>2</v>
       </c>
-      <c r="Z38" s="5" t="s">
+      <c r="Z39" s="5" t="s">
         <v>4564</v>
       </c>
-      <c r="AA38" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="6">
+      <c r="AA39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="6">
         <v>2</v>
       </c>
-      <c r="AD38" s="7" t="s">
+      <c r="AD39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="AE38" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="7">
+      <c r="AE39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="7">
         <v>2</v>
       </c>
-      <c r="AH38" s="6" t="s">
+      <c r="AH39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="AI38" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ38" s="6">
+      <c r="AI39" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="6">
         <v>2</v>
       </c>
-      <c r="AK38" s="7" t="s">
+      <c r="AK39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="AL38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM38" s="6" t="s">
+      <c r="AL39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="AN38" s="6">
+      <c r="AN39" s="6">
         <v>2</v>
       </c>
-      <c r="AO38" s="7" t="s">
+      <c r="AO39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="AP38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="7">
+      <c r="AP39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="7">
         <v>2</v>
       </c>
-      <c r="AR38" s="6" t="s">
+      <c r="AR39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="AS38" s="6">
-        <v>1</v>
-      </c>
-      <c r="AT38" s="7" t="s">
+      <c r="AS39" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="AU38" s="8">
+      <c r="AU39" s="8">
         <v>2</v>
       </c>
-      <c r="AV38" s="5" t="s">
+      <c r="AV39" s="5" t="s">
         <v>4564</v>
       </c>
-      <c r="AW38" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="6">
-        <v>1</v>
-      </c>
-      <c r="AY38" s="6">
+      <c r="AW39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="6">
         <v>2</v>
       </c>
-      <c r="AZ38" s="7" t="s">
+      <c r="AZ39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="BA38" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="7">
-        <v>1</v>
-      </c>
-      <c r="BC38" s="7">
+      <c r="BA39" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC39" s="7">
         <v>2</v>
       </c>
-      <c r="BD38" s="6" t="s">
+      <c r="BD39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="BE38" s="6">
-        <v>1</v>
-      </c>
-      <c r="BF38" s="6">
+      <c r="BE39" s="6">
+        <v>1</v>
+      </c>
+      <c r="BF39" s="6">
         <v>2</v>
       </c>
-      <c r="BG38" s="7" t="s">
+      <c r="BG39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="BH38" s="7">
-        <v>1</v>
-      </c>
-      <c r="BI38" s="6" t="s">
+      <c r="BH39" s="7">
+        <v>1</v>
+      </c>
+      <c r="BI39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="BJ38" s="6">
+      <c r="BJ39" s="6">
         <v>2</v>
       </c>
-      <c r="BK38" s="7" t="s">
+      <c r="BK39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="BL38" s="7">
-        <v>1</v>
-      </c>
-      <c r="BM38" s="7">
+      <c r="BL39" s="7">
+        <v>1</v>
+      </c>
+      <c r="BM39" s="7">
         <v>2</v>
       </c>
-      <c r="BN38" s="6" t="s">
+      <c r="BN39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="BO38" s="6">
-        <v>1</v>
-      </c>
-      <c r="BP38" s="7" t="s">
+      <c r="BO39" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="BQ38" s="8">
+      <c r="BQ39" s="8">
         <v>2</v>
       </c>
-      <c r="BR38" s="5" t="s">
+      <c r="BR39" s="5" t="s">
         <v>4564</v>
       </c>
-      <c r="BS38" s="6">
-        <v>0</v>
-      </c>
-      <c r="BT38" s="6">
-        <v>1</v>
-      </c>
-      <c r="BU38" s="6">
+      <c r="BS39" s="6">
+        <v>0</v>
+      </c>
+      <c r="BT39" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU39" s="6">
         <v>2</v>
       </c>
-      <c r="BV38" s="7" t="s">
+      <c r="BV39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="BW38" s="7">
-        <v>0</v>
-      </c>
-      <c r="BX38" s="7">
-        <v>1</v>
-      </c>
-      <c r="BY38" s="7">
+      <c r="BW39" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX39" s="7">
+        <v>1</v>
+      </c>
+      <c r="BY39" s="7">
         <v>2</v>
       </c>
-      <c r="BZ38" s="6" t="s">
+      <c r="BZ39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="CA38" s="6">
-        <v>1</v>
-      </c>
-      <c r="CB38" s="6">
+      <c r="CA39" s="6">
+        <v>1</v>
+      </c>
+      <c r="CB39" s="6">
         <v>2</v>
       </c>
-      <c r="CC38" s="7" t="s">
+      <c r="CC39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="CD38" s="7">
-        <v>1</v>
-      </c>
-      <c r="CE38" s="6" t="s">
+      <c r="CD39" s="7">
+        <v>1</v>
+      </c>
+      <c r="CE39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="CF38" s="6">
+      <c r="CF39" s="6">
         <v>2</v>
       </c>
-      <c r="CG38" s="7" t="s">
+      <c r="CG39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="CH38" s="7">
-        <v>1</v>
-      </c>
-      <c r="CI38" s="7">
+      <c r="CH39" s="7">
+        <v>1</v>
+      </c>
+      <c r="CI39" s="7">
         <v>2</v>
       </c>
-      <c r="CJ38" s="6" t="s">
+      <c r="CJ39" s="6" t="s">
         <v>4564</v>
       </c>
-      <c r="CK38" s="6">
-        <v>1</v>
-      </c>
-      <c r="CL38" s="7" t="s">
+      <c r="CK39" s="6">
+        <v>1</v>
+      </c>
+      <c r="CL39" s="7" t="s">
         <v>4564</v>
       </c>
-      <c r="CM38" s="8">
+      <c r="CM39" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="10" t="s">
+    <row r="40" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="10" t="s">
         <v>4566</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11" t="s">
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11" t="s">
         <v>4567</v>
       </c>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="10" t="s">
+      <c r="P40" s="11"/>
+      <c r="Q40" s="10" t="s">
         <v>4568</v>
       </c>
-      <c r="R39" s="10"/>
-      <c r="S39" s="11">
-        <v>1</v>
-      </c>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="10" t="s">
+      <c r="R40" s="10"/>
+      <c r="S40" s="11">
+        <v>1</v>
+      </c>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="10" t="s">
         <v>4565</v>
       </c>
-      <c r="W39" s="10"/>
-      <c r="X39" s="11">
+      <c r="W40" s="10"/>
+      <c r="X40" s="11">
         <v>2</v>
       </c>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="10" t="s">
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="10" t="s">
         <v>4566</v>
       </c>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="11" t="s">
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="11" t="s">
         <v>4567</v>
       </c>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="10" t="s">
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="10" t="s">
         <v>4568</v>
       </c>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP39" s="11"/>
-      <c r="AQ39" s="11"/>
-      <c r="AR39" s="10" t="s">
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="10" t="s">
         <v>4565</v>
       </c>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="11">
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="11">
         <v>2</v>
       </c>
-      <c r="AU39" s="12"/>
-      <c r="AV39" s="9"/>
-      <c r="AW39" s="10"/>
-      <c r="AX39" s="10"/>
-      <c r="AY39" s="10"/>
-      <c r="AZ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="11"/>
-      <c r="BB39" s="11"/>
-      <c r="BC39" s="11"/>
-      <c r="BD39" s="10" t="s">
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="9"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="11"/>
+      <c r="BB40" s="11"/>
+      <c r="BC40" s="11"/>
+      <c r="BD40" s="10" t="s">
         <v>4566</v>
       </c>
-      <c r="BE39" s="10"/>
-      <c r="BF39" s="10"/>
-      <c r="BG39" s="11" t="s">
+      <c r="BE40" s="10"/>
+      <c r="BF40" s="10"/>
+      <c r="BG40" s="11" t="s">
         <v>4567</v>
       </c>
-      <c r="BH39" s="11"/>
-      <c r="BI39" s="10" t="s">
+      <c r="BH40" s="11"/>
+      <c r="BI40" s="10" t="s">
         <v>4568</v>
       </c>
-      <c r="BJ39" s="10"/>
-      <c r="BK39" s="11">
-        <v>1</v>
-      </c>
-      <c r="BL39" s="11"/>
-      <c r="BM39" s="11"/>
-      <c r="BN39" s="10" t="s">
+      <c r="BJ40" s="10"/>
+      <c r="BK40" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL40" s="11"/>
+      <c r="BM40" s="11"/>
+      <c r="BN40" s="10" t="s">
         <v>4565</v>
       </c>
-      <c r="BO39" s="10"/>
-      <c r="BP39" s="11">
+      <c r="BO40" s="10"/>
+      <c r="BP40" s="11">
         <v>2</v>
       </c>
-      <c r="BQ39" s="12"/>
-      <c r="BR39" s="9"/>
-      <c r="BS39" s="10"/>
-      <c r="BT39" s="10"/>
-      <c r="BU39" s="10"/>
-      <c r="BV39" s="11">
-        <v>0</v>
-      </c>
-      <c r="BW39" s="11"/>
-      <c r="BX39" s="11"/>
-      <c r="BY39" s="11"/>
-      <c r="BZ39" s="10" t="s">
+      <c r="BQ40" s="12"/>
+      <c r="BR40" s="9"/>
+      <c r="BS40" s="10"/>
+      <c r="BT40" s="10"/>
+      <c r="BU40" s="10"/>
+      <c r="BV40" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW40" s="11"/>
+      <c r="BX40" s="11"/>
+      <c r="BY40" s="11"/>
+      <c r="BZ40" s="10" t="s">
         <v>4566</v>
       </c>
-      <c r="CA39" s="10"/>
-      <c r="CB39" s="10"/>
-      <c r="CC39" s="11" t="s">
+      <c r="CA40" s="10"/>
+      <c r="CB40" s="10"/>
+      <c r="CC40" s="11" t="s">
         <v>4567</v>
       </c>
-      <c r="CD39" s="11"/>
-      <c r="CE39" s="10" t="s">
+      <c r="CD40" s="11"/>
+      <c r="CE40" s="10" t="s">
         <v>4568</v>
       </c>
-      <c r="CF39" s="10"/>
-      <c r="CG39" s="11">
-        <v>1</v>
-      </c>
-      <c r="CH39" s="11"/>
-      <c r="CI39" s="11"/>
-      <c r="CJ39" s="10" t="s">
+      <c r="CF40" s="10"/>
+      <c r="CG40" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH40" s="11"/>
+      <c r="CI40" s="11"/>
+      <c r="CJ40" s="10" t="s">
         <v>4565</v>
       </c>
-      <c r="CK39" s="10"/>
-      <c r="CL39" s="11">
+      <c r="CK40" s="10"/>
+      <c r="CL40" s="11">
         <v>2</v>
       </c>
-      <c r="CM39" s="12"/>
-    </row>
-    <row r="40" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="13">
+      <c r="CM40" s="12"/>
+    </row>
+    <row r="41" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="13">
         <v>2</v>
       </c>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="14"/>
-      <c r="AN40" s="14"/>
-      <c r="AO40" s="14"/>
-      <c r="AP40" s="14"/>
-      <c r="AQ40" s="14"/>
-      <c r="AR40" s="14"/>
-      <c r="AS40" s="14"/>
-      <c r="AT40" s="14"/>
-      <c r="AU40" s="15"/>
-      <c r="AV40" s="13">
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="13">
         <v>3</v>
       </c>
-      <c r="AW40" s="14"/>
-      <c r="AX40" s="14"/>
-      <c r="AY40" s="14"/>
-      <c r="AZ40" s="14"/>
-      <c r="BA40" s="14"/>
-      <c r="BB40" s="14"/>
-      <c r="BC40" s="14"/>
-      <c r="BD40" s="14"/>
-      <c r="BE40" s="14"/>
-      <c r="BF40" s="14"/>
-      <c r="BG40" s="14"/>
-      <c r="BH40" s="14"/>
-      <c r="BI40" s="14"/>
-      <c r="BJ40" s="14"/>
-      <c r="BK40" s="14"/>
-      <c r="BL40" s="14"/>
-      <c r="BM40" s="14"/>
-      <c r="BN40" s="14"/>
-      <c r="BO40" s="14"/>
-      <c r="BP40" s="14"/>
-      <c r="BQ40" s="15"/>
-      <c r="BR40" s="13">
+      <c r="AW41" s="14"/>
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="14"/>
+      <c r="AZ41" s="14"/>
+      <c r="BA41" s="14"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="14"/>
+      <c r="BD41" s="14"/>
+      <c r="BE41" s="14"/>
+      <c r="BF41" s="14"/>
+      <c r="BG41" s="14"/>
+      <c r="BH41" s="14"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="14"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="14"/>
+      <c r="BM41" s="14"/>
+      <c r="BN41" s="14"/>
+      <c r="BO41" s="14"/>
+      <c r="BP41" s="14"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="13">
         <v>4</v>
       </c>
-      <c r="BS40" s="14"/>
-      <c r="BT40" s="14"/>
-      <c r="BU40" s="14"/>
-      <c r="BV40" s="14"/>
-      <c r="BW40" s="14"/>
-      <c r="BX40" s="14"/>
-      <c r="BY40" s="14"/>
-      <c r="BZ40" s="14"/>
-      <c r="CA40" s="14"/>
-      <c r="CB40" s="14"/>
-      <c r="CC40" s="14"/>
-      <c r="CD40" s="14"/>
-      <c r="CE40" s="14"/>
-      <c r="CF40" s="14"/>
-      <c r="CG40" s="14"/>
-      <c r="CH40" s="14"/>
-      <c r="CI40" s="14"/>
-      <c r="CJ40" s="14"/>
-      <c r="CK40" s="14"/>
-      <c r="CL40" s="14"/>
-      <c r="CM40" s="15"/>
-    </row>
-    <row r="42" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="D42" s="3"/>
-      <c r="E42" t="s">
+      <c r="BS41" s="14"/>
+      <c r="BT41" s="14"/>
+      <c r="BU41" s="14"/>
+      <c r="BV41" s="14"/>
+      <c r="BW41" s="14"/>
+      <c r="BX41" s="14"/>
+      <c r="BY41" s="14"/>
+      <c r="BZ41" s="14"/>
+      <c r="CA41" s="14"/>
+      <c r="CB41" s="14"/>
+      <c r="CC41" s="14"/>
+      <c r="CD41" s="14"/>
+      <c r="CE41" s="14"/>
+      <c r="CF41" s="14"/>
+      <c r="CG41" s="14"/>
+      <c r="CH41" s="14"/>
+      <c r="CI41" s="14"/>
+      <c r="CJ41" s="14"/>
+      <c r="CK41" s="14"/>
+      <c r="CL41" s="14"/>
+      <c r="CM41" s="15"/>
+    </row>
+    <row r="43" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+      <c r="E43" t="s">
         <v>4573</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K43" t="s">
         <v>4562</v>
-      </c>
-    </row>
-    <row r="43" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" ref="E43:E106" si="2">"brainCells["&amp;C43&amp;"] = "&amp;D43&amp;"d;"</f>
-        <v>brainCells[0] = 0d;</v>
-      </c>
-      <c r="K43" t="s">
-        <v>4474</v>
       </c>
     </row>
     <row r="44" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>0.61542228240837704</v>
+        <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
-        <v>brainCells[1] = 0,615422282408377d;</v>
+        <f t="shared" ref="E44:E107" si="2">"brainCells["&amp;C44&amp;"] = "&amp;D44&amp;"d;"</f>
+        <v>brainCells[0] = 0d;</v>
       </c>
       <c r="K44" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="45" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>0.61538459359238595</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[2] = 0d;</v>
+        <v>brainCells[1] = 0,615384593592386d;</v>
       </c>
       <c r="K45" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="46" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>0.38457771759162301</v>
+        <v>0</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[3] = 0,384577717591623d;</v>
+        <v>brainCells[2] = 0d;</v>
       </c>
       <c r="K46" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="47" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>0.38461540640761399</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[4] = 0d;</v>
+        <v>brainCells[3] = 0,384615406407614d;</v>
       </c>
       <c r="K47" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="48" spans="2:91" x14ac:dyDescent="0.25">
       <c r="C48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3">
-        <v>0.38461530786633003</v>
+        <v>0</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[5] = 0,38461530786633d;</v>
+        <v>brainCells[4] = 0d;</v>
       </c>
       <c r="K48" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="3">
-        <v>0.115384692134103</v>
+        <v>0.384615384616041</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[6] = 0,115384692134103d;</v>
+        <v>brainCells[5] = 0,384615384616041d;</v>
       </c>
       <c r="K49" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="3">
-        <v>0.49999999999956801</v>
+        <v>0.115384615384392</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[7] = 0,499999999999568d;</v>
+        <v>brainCells[6] = 0,115384615384392d;</v>
       </c>
       <c r="K50" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="3">
-        <v>1</v>
+        <v>0.49999999999956801</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[8] = 1d;</v>
+        <v>brainCells[7] = 0,499999999999568d;</v>
       </c>
       <c r="K51" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[9] = 0d;</v>
+        <v>brainCells[8] = 1d;</v>
       </c>
       <c r="K52" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[10] = 0d;</v>
+        <v>brainCells[9] = 0d;</v>
       </c>
       <c r="K53" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[11] = 1d;</v>
+        <v>brainCells[10] = 0d;</v>
       </c>
       <c r="K54" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="3">
-        <v>5.5511151200000003E-17</v>
+        <v>1</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[12] = 5,55111512E-17d;</v>
+        <v>brainCells[11] = 1d;</v>
       </c>
       <c r="K55" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="3">
-        <v>1</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[13] = 1d;</v>
+        <v>brainCells[12] = 5,55111512E-17d;</v>
       </c>
       <c r="K56" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[14] = 0d;</v>
+        <v>brainCells[13] = 1d;</v>
       </c>
       <c r="K57" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="3">
-        <v>0.77136417466798701</v>
+        <v>0</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[15] = 0,771364174667987d;</v>
+        <v>brainCells[14] = 0d;</v>
       </c>
       <c r="K58" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>0.77136417466798701</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[16] = 0d;</v>
+        <v>brainCells[15] = 0,771364174667987d;</v>
       </c>
       <c r="K59" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3">
-        <v>0.22863582533201299</v>
+        <v>0</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[17] = 0,228635825332013d;</v>
+        <v>brainCells[16] = 0d;</v>
       </c>
       <c r="K60" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="3">
-        <v>1</v>
+        <v>0.22863582533201299</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[18] = 1d;</v>
+        <v>brainCells[17] = 0,228635825332013d;</v>
       </c>
       <c r="K61" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[19] = 0d;</v>
+        <v>brainCells[18] = 1d;</v>
       </c>
       <c r="K62" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" s="3">
-        <v>0.99999999999854505</v>
+        <v>0</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[20] = 0,999999999998545d;</v>
+        <v>brainCells[19] = 0d;</v>
       </c>
       <c r="K63" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="3">
-        <v>1.4551693183761999E-12</v>
+        <v>1</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[21] = 1,4551693183762E-12d;</v>
+        <v>brainCells[20] = 1d;</v>
       </c>
       <c r="K64" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[22] = 0d;</v>
+        <v>brainCells[21] = 0d;</v>
       </c>
       <c r="K65" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="3">
-        <v>1</v>
+        <v>2.0816681700000001E-17</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[23] = 1d;</v>
+        <v>brainCells[22] = 2,08166817E-17d;</v>
       </c>
       <c r="K66" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="3">
-        <v>2.0816681700000001E-17</v>
+        <v>1</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[24] = 2,08166817E-17d;</v>
+        <v>brainCells[23] = 1d;</v>
       </c>
       <c r="K67" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[25] = 0d;</v>
+        <v>brainCells[24] = 0d;</v>
       </c>
       <c r="K68" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[26] = 0d;</v>
+        <v>brainCells[25] = 0d;</v>
       </c>
       <c r="K69" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[27] = 1d;</v>
+        <v>brainCells[26] = 0d;</v>
       </c>
       <c r="K70" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[28] = 0d;</v>
+        <v>brainCells[27] = 1d;</v>
       </c>
       <c r="K71" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" s="3">
         <v>5.5511151200000003E-17</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[29] = 5,55111512E-17d;</v>
+        <v>brainCells[28] = 5,55111512E-17d;</v>
       </c>
       <c r="K72" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3">
-        <v>0.53831087036751202</v>
+        <v>0</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[30] = 0,538310870367512d;</v>
+        <v>brainCells[29] = 0d;</v>
       </c>
       <c r="K73" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="3">
-        <v>0.46168912963248798</v>
+        <v>0.53846153119723705</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[31] = 0,461689129632488d;</v>
+        <v>brainCells[30] = 0,538461531197237d;</v>
       </c>
       <c r="K74" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" s="3">
-        <v>0</v>
+        <v>0.461538468802763</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[32] = 0d;</v>
+        <v>brainCells[31] = 0,461538468802763d;</v>
       </c>
       <c r="K75" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="3">
-        <v>0.76642268689775395</v>
+        <v>0</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[33] = 0,766422686897754d;</v>
+        <v>brainCells[32] = 0d;</v>
       </c>
       <c r="K76" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="3">
-        <v>0.233577313102246</v>
+        <v>0.76642268689775395</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[34] = 0,233577313102246d;</v>
+        <v>brainCells[33] = 0,766422686897754d;</v>
       </c>
       <c r="K77" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="3">
-        <v>0.96156671180506204</v>
+        <v>0.233577313102246</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[35] = 0,961566711805062d;</v>
+        <v>brainCells[34] = 0,233577313102246d;</v>
       </c>
       <c r="K78" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D79" s="3">
-        <v>3.8433288194937597E-2</v>
+        <v>0.96153844519430998</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[36] = 0,0384332881949376d;</v>
+        <v>brainCells[35] = 0,96153844519431d;</v>
       </c>
       <c r="K79" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" s="3">
-        <v>0.65820568260241996</v>
+        <v>3.8461554805689899E-2</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[37] = 0,65820568260242d;</v>
+        <v>brainCells[36] = 0,0384615548056899d;</v>
       </c>
       <c r="K80" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D81" s="3">
-        <v>0.34179431739757998</v>
+        <v>0.65820568260241996</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[38] = 0,34179431739758d;</v>
+        <v>brainCells[37] = 0,65820568260242d;</v>
       </c>
       <c r="K81" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D82" s="3">
-        <v>0</v>
+        <v>0.34179431739757998</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[39] = 0d;</v>
+        <v>brainCells[38] = 0,34179431739758d;</v>
       </c>
       <c r="K82" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[40] = 1d;</v>
+        <v>brainCells[39] = 0d;</v>
       </c>
       <c r="K83" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D84" s="3">
-        <v>1.1102230250000001E-16</v>
+        <v>1</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[41] = 1,110223025E-16d;</v>
+        <v>brainCells[40] = 1d;</v>
       </c>
       <c r="K84" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85" s="3">
-        <v>0.817692827036126</v>
+        <v>0</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[42] = 0,817692827036126d;</v>
+        <v>brainCells[41] = 0d;</v>
       </c>
       <c r="K85" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D86" s="3">
-        <v>0.182307172963874</v>
+        <v>1</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[43] = 0,182307172963874d;</v>
+        <v>brainCells[42] = 1d;</v>
       </c>
       <c r="K86" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D87" s="3">
-        <v>2.2551405200000002E-17</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[44] = 2,25514052E-17d;</v>
+        <v>brainCells[43] = 5,55111512E-17d;</v>
       </c>
       <c r="K87" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D88" s="3">
-        <v>0.99999999999854505</v>
+        <v>0</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[45] = 0,999999999998545d;</v>
+        <v>brainCells[44] = 0d;</v>
       </c>
       <c r="K88" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[46] = 0d;</v>
+        <v>brainCells[45] = 1d;</v>
       </c>
       <c r="K89" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D90" s="3">
-        <v>1.4551693183761999E-12</v>
+        <v>0</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[47] = 1,4551693183762E-12d;</v>
+        <v>brainCells[46] = 0d;</v>
       </c>
       <c r="K90" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>2.7755575600000001E-17</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[48] = 0d;</v>
+        <v>brainCells[47] = 2,77555756E-17d;</v>
       </c>
       <c r="K91" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D92" s="3">
-        <v>0.65384592359677096</v>
+        <v>0</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[49] = 0,653845923596771d;</v>
+        <v>brainCells[48] = 0d;</v>
       </c>
       <c r="K92" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D93" s="3">
-        <v>0.34615407640322898</v>
+        <v>0.65384615384483902</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[50] = 0,346154076403229d;</v>
+        <v>brainCells[49] = 0,653846153844839d;</v>
       </c>
       <c r="K93" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>0.34615384615323502</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[51] = 0d;</v>
+        <v>brainCells[50] = 0,346153846153235d;</v>
       </c>
       <c r="K94" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>1.9256818362123001E-12</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[52] = 0d;</v>
+        <v>brainCells[51] = 1,9256818362123E-12d;</v>
       </c>
       <c r="K95" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D96" s="3">
-        <v>0.541719553021906</v>
+        <v>0</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[53] = 0,541719553021906d;</v>
+        <v>brainCells[52] = 0d;</v>
       </c>
       <c r="K96" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D97" s="3">
-        <v>0.458280446978094</v>
+        <v>0.51671955302190598</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[54] = 0,458280446978094d;</v>
+        <v>brainCells[53] = 0,516719553021906d;</v>
       </c>
       <c r="K97" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D98" s="3">
-        <v>9.0205620800000006E-17</v>
+        <v>0.48328044697809402</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[55] = 9,02056208E-17d;</v>
+        <v>brainCells[54] = 0,483280446978094d;</v>
       </c>
       <c r="K98" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D99" s="3">
-        <v>1</v>
+        <v>9.0205620800000006E-17</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[56] = 1d;</v>
+        <v>brainCells[55] = 9,02056208E-17d;</v>
       </c>
       <c r="K99" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D100" s="3">
-        <v>2.2551405200000002E-17</v>
+        <v>1</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[57] = 2,25514052E-17d;</v>
+        <v>brainCells[56] = 1d;</v>
       </c>
       <c r="K100" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D101" s="3">
-        <v>1</v>
+        <v>2.2551405200000002E-17</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[58] = 1d;</v>
+        <v>brainCells[57] = 2,25514052E-17d;</v>
       </c>
       <c r="K101" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D102" s="3">
-        <v>5.5511151200000003E-17</v>
+        <v>1</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[59] = 5,55111512E-17d;</v>
+        <v>brainCells[58] = 1d;</v>
       </c>
       <c r="K102" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D103" s="3">
-        <v>1</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[60] = 1d;</v>
+        <v>brainCells[59] = 5,55111512E-17d;</v>
       </c>
       <c r="K103" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[61] = 0d;</v>
+        <v>brainCells[60] = 1d;</v>
       </c>
       <c r="K104" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C105">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D105" s="3">
-        <v>0.63752092403593497</v>
+        <v>0</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[62] = 0,637520924035935d;</v>
+        <v>brainCells[61] = 0d;</v>
       </c>
       <c r="K105" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C106">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D106" s="3">
-        <v>0.36247907596406498</v>
+        <v>0.63752092403593497</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[63] = 0,362479075964065d;</v>
+        <v>brainCells[62] = 0,637520924035935d;</v>
       </c>
       <c r="K106" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C107">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D107" s="3">
-        <v>0.27846099993088602</v>
+        <v>0.36247907596406498</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" ref="E107:E130" si="3">"brainCells["&amp;C107&amp;"] = "&amp;D107&amp;"d;"</f>
-        <v>brainCells[64] = 0,278460999930886d;</v>
+        <f t="shared" si="2"/>
+        <v>brainCells[63] = 0,362479075964065d;</v>
       </c>
       <c r="K107" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D108" s="3">
-        <v>0.72153900006911398</v>
+        <v>9.6153846153174502E-2</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="3"/>
-        <v>brainCells[65] = 0,721539000069114d;</v>
+        <f t="shared" ref="E108:E131" si="3">"brainCells["&amp;C108&amp;"] = "&amp;D108&amp;"d;"</f>
+        <v>brainCells[64] = 0,0961538461531745d;</v>
       </c>
       <c r="K108" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C109">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D109" s="3">
-        <v>0</v>
+        <v>0.90384615384682598</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[66] = 0d;</v>
+        <v>brainCells[65] = 0,903846153846826d;</v>
       </c>
       <c r="K109" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C110">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D110" s="3">
-        <v>0.230844564815925</v>
+        <v>0</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[67] = 0,230844564815925d;</v>
+        <v>brainCells[66] = 0d;</v>
       </c>
       <c r="K110" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C111">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D111" s="3">
-        <v>0</v>
+        <v>0.230769187184342</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[68] = 0d;</v>
+        <v>brainCells[67] = 0,230769187184342d;</v>
       </c>
       <c r="K111" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C112">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D112" s="3">
-        <v>0.76915543518407503</v>
+        <v>0</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[69] = 0,769155435184075d;</v>
+        <v>brainCells[68] = 0d;</v>
       </c>
       <c r="K112" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C113">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D113" s="3">
-        <v>0</v>
+        <v>0.76923081281565797</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[70] = 0d;</v>
+        <v>brainCells[69] = 0,769230812815658d;</v>
       </c>
       <c r="K113" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C114">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D114" s="3">
-        <v>5.5511151200000003E-17</v>
+        <v>0</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[71] = 5,55111512E-17d;</v>
+        <v>brainCells[70] = 0d;</v>
       </c>
       <c r="K114" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C115">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D115" s="3">
-        <v>0</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[72] = 0d;</v>
+        <v>brainCells[71] = 5,55111512E-17d;</v>
       </c>
       <c r="K115" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C116">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[73] = 1d;</v>
+        <v>brainCells[72] = 0d;</v>
       </c>
       <c r="K116" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C117">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[74] = 0d;</v>
+        <v>brainCells[73] = 1d;</v>
       </c>
       <c r="K117" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C118">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D118" s="3">
-        <v>2.7755575600000001E-17</v>
+        <v>0</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[75] = 2,77555756E-17d;</v>
+        <v>brainCells[74] = 0d;</v>
       </c>
       <c r="K118" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C119">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[76] = 1d;</v>
+        <v>brainCells[75] = 0d;</v>
       </c>
       <c r="K119" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C120">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D120" s="3">
-        <v>0.53272930324670398</v>
+        <v>1</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[77] = 0,532729303246704d;</v>
+        <v>brainCells[76] = 1d;</v>
       </c>
       <c r="K120" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C121">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D121" s="3">
-        <v>0.46727069675329602</v>
+        <v>0.17761475414858</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[78] = 0,467270696753296d;</v>
+        <v>brainCells[77] = 0,17761475414858d;</v>
       </c>
       <c r="K121" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C122">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D122" s="3">
-        <v>0</v>
+        <v>0.82238524585142003</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[79] = 0d;</v>
+        <v>brainCells[78] = 0,82238524585142d;</v>
       </c>
       <c r="K122" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C123">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D123" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[80] = 1d;</v>
+        <v>brainCells[79] = 0d;</v>
       </c>
       <c r="K123" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C124">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[81] = 0d;</v>
+        <v>brainCells[80] = 1d;</v>
       </c>
       <c r="K124" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C125">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D125" s="3">
-        <v>9.6557774587630193E-2</v>
+        <v>0</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[82] = 0,0965577745876302d;</v>
+        <v>brainCells[81] = 0d;</v>
       </c>
       <c r="K125" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C126">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D126" s="3">
-        <v>0.90344222541236996</v>
+        <v>7.9079661820354294E-2</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[83] = 0,90344222541237d;</v>
+        <v>brainCells[82] = 0,0790796618203543d;</v>
       </c>
       <c r="K126" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C127">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D127" s="3">
-        <v>5.5511151200000003E-17</v>
+        <v>0.92092033817964603</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[84] = 5,55111512E-17d;</v>
+        <v>brainCells[83] = 0,920920338179646d;</v>
       </c>
       <c r="K127" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C128">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D128" s="3">
-        <v>1</v>
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[85] = 1d;</v>
+        <v>brainCells[84] = 5,55111512E-17d;</v>
       </c>
       <c r="K128" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="129" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C129">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D129" s="3">
-        <v>6.2450045100000003E-17</v>
+        <v>1</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[86] = 6,24500451E-17d;</v>
+        <v>brainCells[85] = 1d;</v>
       </c>
       <c r="K129" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="130" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C130">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D130" s="3">
-        <v>1</v>
+        <v>6.2450045100000003E-17</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="3"/>
+        <v>brainCells[86] = 6,24500451E-17d;</v>
+      </c>
+      <c r="K130" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="131" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>87</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="3"/>
         <v>brainCells[87] = 1d;</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K131" t="s">
         <v>4561</v>
       </c>
     </row>
@@ -60758,7 +61028,7 @@
   <sortState ref="B3:CM33">
     <sortCondition ref="C3:C33"/>
   </sortState>
-  <conditionalFormatting sqref="D37 F37 H37 Y37:Z37 CL37 BT37 BV37:BX37 CE37 R37:U37 AV37 BD37:BG37 D3:CM36 AB37:AD37 AF37:AG37 AX37:AZ37 BZ37:CA37 CG37:CH37 BI37 BK37 BM37:BR37">
+  <conditionalFormatting sqref="D38 F38 H38 Y38:Z38 CL38 BT38 BV38:BX38 CE38 R38:U38 AV38 BD38:BG38 D3:CM37 AB38:AD38 AF38:AG38 AX38:AZ38 BZ38:CA38 CG38:CH38 BI38 BK38 BM38:BR38">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -60773,7 +61043,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -60788,7 +61059,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37 F37 H37 Y37:Z37 CL37 BT37 BV37:BX37 CE37 R37:U37 AV37 BD37:BG37 D3:CM36 AB37:AD37 AF37:AG37 AX37:AZ37 BZ37:CA37 CG37:CH37 BI37 BK37 BM37:BR37</xm:sqref>
+          <xm:sqref>D38 F38 H38 Y38:Z38 CL38 BT38 BV38:BX38 CE38 R38:U38 AV38 BD38:BG38 D3:CM37 AB38:AD38 AF38:AG38 AX38:AZ38 BZ38:CA38 CG38:CH38 BI38 BK38 BM38:BR38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Probability/Analysis_Best.xlsx
+++ b/Probability/Analysis_Best.xlsx
@@ -13804,7 +13804,7 @@
     <t>Avg 10</t>
   </si>
   <si>
-    <t>Best -0,000000001930</t>
+    <t>Best -0,0000000000000727</t>
   </si>
 </sst>
 </file>
@@ -58023,28 +58023,28 @@
     <row r="35" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35">
-        <v>-1.9300000000000002E-9</v>
+        <v>-7.2699999999999996E-14</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.61538459359238595</v>
+        <v>0.615384615384305</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.38461540640761399</v>
+        <v>0.384615384615695</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.384615384616041</v>
+        <v>0.38461538461623501</v>
       </c>
       <c r="J35">
-        <v>0.115384615384392</v>
+        <v>0.115384615384198</v>
       </c>
       <c r="K35">
         <v>0.49999999999956801</v>
@@ -58116,10 +58116,10 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>0.53846153119723705</v>
+        <v>0.53846153846175604</v>
       </c>
       <c r="AI35">
-        <v>0.461538468802763</v>
+        <v>0.46153846153824402</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -58131,10 +58131,10 @@
         <v>0.233577313102246</v>
       </c>
       <c r="AM35">
-        <v>0.96153844519430998</v>
+        <v>0.961538461538467</v>
       </c>
       <c r="AN35">
-        <v>3.8461554805689899E-2</v>
+        <v>3.8461538461533003E-2</v>
       </c>
       <c r="AO35">
         <v>0.65820568260241996</v>
@@ -58152,10 +58152,10 @@
         <v>0</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.73570105188409796</v>
       </c>
       <c r="AU35">
-        <v>5.5511151200000003E-17</v>
+        <v>0.26429894811590199</v>
       </c>
       <c r="AV35">
         <v>0</v>
@@ -58167,28 +58167,28 @@
         <v>0</v>
       </c>
       <c r="AY35">
-        <v>2.7755575600000001E-17</v>
+        <v>1.3877787810000001E-16</v>
       </c>
       <c r="AZ35">
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>0.65384615384483902</v>
+        <v>0.65384615384593003</v>
       </c>
       <c r="BB35">
-        <v>0.34615384615323502</v>
+        <v>0.34615384615234102</v>
       </c>
       <c r="BC35">
-        <v>1.9256818362123001E-12</v>
+        <v>1.7287837827951001E-12</v>
       </c>
       <c r="BD35">
         <v>0</v>
       </c>
       <c r="BE35">
-        <v>0.51671955302190598</v>
+        <v>0.64984867713774197</v>
       </c>
       <c r="BF35">
-        <v>0.48328044697809402</v>
+        <v>0.35015132286225797</v>
       </c>
       <c r="BG35">
         <v>9.0205620800000006E-17</v>
@@ -58197,43 +58197,43 @@
         <v>1</v>
       </c>
       <c r="BI35">
-        <v>2.2551405200000002E-17</v>
+        <v>0</v>
       </c>
       <c r="BJ35">
         <v>1</v>
       </c>
       <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>1</v>
+      </c>
+      <c r="BM35">
         <v>5.5511151200000003E-17</v>
       </c>
-      <c r="BL35">
-        <v>1</v>
-      </c>
-      <c r="BM35">
-        <v>0</v>
-      </c>
       <c r="BN35">
-        <v>0.63752092403593497</v>
+        <v>1</v>
       </c>
       <c r="BO35">
-        <v>0.36247907596406498</v>
+        <v>0</v>
       </c>
       <c r="BP35">
-        <v>9.6153846153174502E-2</v>
+        <v>0.360452794269914</v>
       </c>
       <c r="BQ35">
-        <v>0.90384615384682598</v>
+        <v>0.63954720573008605</v>
       </c>
       <c r="BR35">
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>0.230769187184342</v>
+        <v>0.23076923076858499</v>
       </c>
       <c r="BT35">
         <v>0</v>
       </c>
       <c r="BU35">
-        <v>0.76923081281565797</v>
+        <v>0.76923076923141498</v>
       </c>
       <c r="BV35">
         <v>0</v>
@@ -58257,10 +58257,10 @@
         <v>1</v>
       </c>
       <c r="CC35">
-        <v>0.17761475414858</v>
+        <v>2.7755575600000001E-17</v>
       </c>
       <c r="CD35">
-        <v>0.82238524585142003</v>
+        <v>1</v>
       </c>
       <c r="CE35">
         <v>0</v>
@@ -58272,10 +58272,10 @@
         <v>0</v>
       </c>
       <c r="CH35">
-        <v>7.9079661820354294E-2</v>
+        <v>8.3266726800000004E-17</v>
       </c>
       <c r="CI35">
-        <v>0.92092033817964603</v>
+        <v>1</v>
       </c>
       <c r="CJ35">
         <v>5.5511151200000003E-17</v>
@@ -59708,7 +59708,7 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="str">
@@ -59723,12 +59723,12 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="3">
-        <v>0.61538459359238595</v>
+      <c r="D45">
+        <v>0.615384615384305</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[1] = 0,615384593592386d;</v>
+        <v>brainCells[1] = 0,615384615384305d;</v>
       </c>
       <c r="K45" t="s">
         <v>4475</v>
@@ -59738,7 +59738,7 @@
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="str">
@@ -59753,12 +59753,12 @@
       <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47" s="3">
-        <v>0.38461540640761399</v>
+      <c r="D47">
+        <v>0.384615384615695</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[3] = 0,384615406407614d;</v>
+        <v>brainCells[3] = 0,384615384615695d;</v>
       </c>
       <c r="K47" t="s">
         <v>4477</v>
@@ -59768,7 +59768,7 @@
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="str">
@@ -59783,12 +59783,12 @@
       <c r="C49">
         <v>5</v>
       </c>
-      <c r="D49" s="3">
-        <v>0.384615384616041</v>
+      <c r="D49">
+        <v>0.38461538461623501</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[5] = 0,384615384616041d;</v>
+        <v>brainCells[5] = 0,384615384616235d;</v>
       </c>
       <c r="K49" t="s">
         <v>4479</v>
@@ -59798,12 +59798,12 @@
       <c r="C50">
         <v>6</v>
       </c>
-      <c r="D50" s="3">
-        <v>0.115384615384392</v>
+      <c r="D50">
+        <v>0.115384615384198</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[6] = 0,115384615384392d;</v>
+        <v>brainCells[6] = 0,115384615384198d;</v>
       </c>
       <c r="K50" t="s">
         <v>4480</v>
@@ -59813,7 +59813,7 @@
       <c r="C51">
         <v>7</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>0.49999999999956801</v>
       </c>
       <c r="E51" t="str">
@@ -59828,7 +59828,7 @@
       <c r="C52">
         <v>8</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="str">
@@ -59843,7 +59843,7 @@
       <c r="C53">
         <v>9</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="str">
@@ -59858,7 +59858,7 @@
       <c r="C54">
         <v>10</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="str">
@@ -59873,7 +59873,7 @@
       <c r="C55">
         <v>11</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="str">
@@ -59888,7 +59888,7 @@
       <c r="C56">
         <v>12</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>5.5511151200000003E-17</v>
       </c>
       <c r="E56" t="str">
@@ -59903,7 +59903,7 @@
       <c r="C57">
         <v>13</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="str">
@@ -59918,7 +59918,7 @@
       <c r="C58">
         <v>14</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="str">
@@ -59933,7 +59933,7 @@
       <c r="C59">
         <v>15</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59">
         <v>0.77136417466798701</v>
       </c>
       <c r="E59" t="str">
@@ -59948,7 +59948,7 @@
       <c r="C60">
         <v>16</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="str">
@@ -59963,7 +59963,7 @@
       <c r="C61">
         <v>17</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>0.22863582533201299</v>
       </c>
       <c r="E61" t="str">
@@ -59978,7 +59978,7 @@
       <c r="C62">
         <v>18</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="str">
@@ -59993,7 +59993,7 @@
       <c r="C63">
         <v>19</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="str">
@@ -60008,7 +60008,7 @@
       <c r="C64">
         <v>20</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="str">
@@ -60023,7 +60023,7 @@
       <c r="C65">
         <v>21</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="str">
@@ -60038,7 +60038,7 @@
       <c r="C66">
         <v>22</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>2.0816681700000001E-17</v>
       </c>
       <c r="E66" t="str">
@@ -60053,7 +60053,7 @@
       <c r="C67">
         <v>23</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="str">
@@ -60068,7 +60068,7 @@
       <c r="C68">
         <v>24</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="str">
@@ -60083,7 +60083,7 @@
       <c r="C69">
         <v>25</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="str">
@@ -60098,7 +60098,7 @@
       <c r="C70">
         <v>26</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="str">
@@ -60113,7 +60113,7 @@
       <c r="C71">
         <v>27</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="str">
@@ -60128,7 +60128,7 @@
       <c r="C72">
         <v>28</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>5.5511151200000003E-17</v>
       </c>
       <c r="E72" t="str">
@@ -60143,7 +60143,7 @@
       <c r="C73">
         <v>29</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="str">
@@ -60158,12 +60158,12 @@
       <c r="C74">
         <v>30</v>
       </c>
-      <c r="D74" s="3">
-        <v>0.53846153119723705</v>
+      <c r="D74">
+        <v>0.53846153846175604</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[30] = 0,538461531197237d;</v>
+        <v>brainCells[30] = 0,538461538461756d;</v>
       </c>
       <c r="K74" t="s">
         <v>4504</v>
@@ -60173,12 +60173,12 @@
       <c r="C75">
         <v>31</v>
       </c>
-      <c r="D75" s="3">
-        <v>0.461538468802763</v>
+      <c r="D75">
+        <v>0.46153846153824402</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[31] = 0,461538468802763d;</v>
+        <v>brainCells[31] = 0,461538461538244d;</v>
       </c>
       <c r="K75" t="s">
         <v>4505</v>
@@ -60188,7 +60188,7 @@
       <c r="C76">
         <v>32</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="str">
@@ -60203,7 +60203,7 @@
       <c r="C77">
         <v>33</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77">
         <v>0.76642268689775395</v>
       </c>
       <c r="E77" t="str">
@@ -60218,7 +60218,7 @@
       <c r="C78">
         <v>34</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78">
         <v>0.233577313102246</v>
       </c>
       <c r="E78" t="str">
@@ -60233,12 +60233,12 @@
       <c r="C79">
         <v>35</v>
       </c>
-      <c r="D79" s="3">
-        <v>0.96153844519430998</v>
+      <c r="D79">
+        <v>0.961538461538467</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[35] = 0,96153844519431d;</v>
+        <v>brainCells[35] = 0,961538461538467d;</v>
       </c>
       <c r="K79" t="s">
         <v>4509</v>
@@ -60248,12 +60248,12 @@
       <c r="C80">
         <v>36</v>
       </c>
-      <c r="D80" s="3">
-        <v>3.8461554805689899E-2</v>
+      <c r="D80">
+        <v>3.8461538461533003E-2</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[36] = 0,0384615548056899d;</v>
+        <v>brainCells[36] = 0,038461538461533d;</v>
       </c>
       <c r="K80" t="s">
         <v>4510</v>
@@ -60263,7 +60263,7 @@
       <c r="C81">
         <v>37</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81">
         <v>0.65820568260241996</v>
       </c>
       <c r="E81" t="str">
@@ -60278,7 +60278,7 @@
       <c r="C82">
         <v>38</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82">
         <v>0.34179431739757998</v>
       </c>
       <c r="E82" t="str">
@@ -60293,7 +60293,7 @@
       <c r="C83">
         <v>39</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="str">
@@ -60308,7 +60308,7 @@
       <c r="C84">
         <v>40</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="str">
@@ -60323,7 +60323,7 @@
       <c r="C85">
         <v>41</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="str">
@@ -60338,12 +60338,12 @@
       <c r="C86">
         <v>42</v>
       </c>
-      <c r="D86" s="3">
-        <v>1</v>
+      <c r="D86">
+        <v>0.73570105188409796</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[42] = 1d;</v>
+        <v>brainCells[42] = 0,735701051884098d;</v>
       </c>
       <c r="K86" t="s">
         <v>4516</v>
@@ -60353,12 +60353,12 @@
       <c r="C87">
         <v>43</v>
       </c>
-      <c r="D87" s="3">
-        <v>5.5511151200000003E-17</v>
+      <c r="D87">
+        <v>0.26429894811590199</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[43] = 5,55111512E-17d;</v>
+        <v>brainCells[43] = 0,264298948115902d;</v>
       </c>
       <c r="K87" t="s">
         <v>4517</v>
@@ -60368,7 +60368,7 @@
       <c r="C88">
         <v>44</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="str">
@@ -60383,7 +60383,7 @@
       <c r="C89">
         <v>45</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="str">
@@ -60398,7 +60398,7 @@
       <c r="C90">
         <v>46</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="str">
@@ -60413,12 +60413,12 @@
       <c r="C91">
         <v>47</v>
       </c>
-      <c r="D91" s="3">
-        <v>2.7755575600000001E-17</v>
+      <c r="D91">
+        <v>1.3877787810000001E-16</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[47] = 2,77555756E-17d;</v>
+        <v>brainCells[47] = 1,387778781E-16d;</v>
       </c>
       <c r="K91" t="s">
         <v>4521</v>
@@ -60428,7 +60428,7 @@
       <c r="C92">
         <v>48</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="str">
@@ -60443,12 +60443,12 @@
       <c r="C93">
         <v>49</v>
       </c>
-      <c r="D93" s="3">
-        <v>0.65384615384483902</v>
+      <c r="D93">
+        <v>0.65384615384593003</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[49] = 0,653846153844839d;</v>
+        <v>brainCells[49] = 0,65384615384593d;</v>
       </c>
       <c r="K93" t="s">
         <v>4523</v>
@@ -60458,12 +60458,12 @@
       <c r="C94">
         <v>50</v>
       </c>
-      <c r="D94" s="3">
-        <v>0.34615384615323502</v>
+      <c r="D94">
+        <v>0.34615384615234102</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[50] = 0,346153846153235d;</v>
+        <v>brainCells[50] = 0,346153846152341d;</v>
       </c>
       <c r="K94" t="s">
         <v>4524</v>
@@ -60473,12 +60473,12 @@
       <c r="C95">
         <v>51</v>
       </c>
-      <c r="D95" s="3">
-        <v>1.9256818362123001E-12</v>
+      <c r="D95">
+        <v>1.7287837827951001E-12</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[51] = 1,9256818362123E-12d;</v>
+        <v>brainCells[51] = 1,7287837827951E-12d;</v>
       </c>
       <c r="K95" t="s">
         <v>4525</v>
@@ -60488,7 +60488,7 @@
       <c r="C96">
         <v>52</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="str">
@@ -60503,12 +60503,12 @@
       <c r="C97">
         <v>53</v>
       </c>
-      <c r="D97" s="3">
-        <v>0.51671955302190598</v>
+      <c r="D97">
+        <v>0.64984867713774197</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[53] = 0,516719553021906d;</v>
+        <v>brainCells[53] = 0,649848677137742d;</v>
       </c>
       <c r="K97" t="s">
         <v>4527</v>
@@ -60518,12 +60518,12 @@
       <c r="C98">
         <v>54</v>
       </c>
-      <c r="D98" s="3">
-        <v>0.48328044697809402</v>
+      <c r="D98">
+        <v>0.35015132286225797</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[54] = 0,483280446978094d;</v>
+        <v>brainCells[54] = 0,350151322862258d;</v>
       </c>
       <c r="K98" t="s">
         <v>4528</v>
@@ -60533,7 +60533,7 @@
       <c r="C99">
         <v>55</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>9.0205620800000006E-17</v>
       </c>
       <c r="E99" t="str">
@@ -60548,7 +60548,7 @@
       <c r="C100">
         <v>56</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" t="str">
@@ -60563,12 +60563,12 @@
       <c r="C101">
         <v>57</v>
       </c>
-      <c r="D101" s="3">
-        <v>2.2551405200000002E-17</v>
+      <c r="D101">
+        <v>0</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[57] = 2,25514052E-17d;</v>
+        <v>brainCells[57] = 0d;</v>
       </c>
       <c r="K101" t="s">
         <v>4531</v>
@@ -60578,7 +60578,7 @@
       <c r="C102">
         <v>58</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="str">
@@ -60593,12 +60593,12 @@
       <c r="C103">
         <v>59</v>
       </c>
-      <c r="D103" s="3">
-        <v>5.5511151200000003E-17</v>
+      <c r="D103">
+        <v>0</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[59] = 5,55111512E-17d;</v>
+        <v>brainCells[59] = 0d;</v>
       </c>
       <c r="K103" t="s">
         <v>4533</v>
@@ -60608,7 +60608,7 @@
       <c r="C104">
         <v>60</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>1</v>
       </c>
       <c r="E104" t="str">
@@ -60623,12 +60623,12 @@
       <c r="C105">
         <v>61</v>
       </c>
-      <c r="D105" s="3">
-        <v>0</v>
+      <c r="D105">
+        <v>5.5511151200000003E-17</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[61] = 0d;</v>
+        <v>brainCells[61] = 5,55111512E-17d;</v>
       </c>
       <c r="K105" t="s">
         <v>4535</v>
@@ -60638,12 +60638,12 @@
       <c r="C106">
         <v>62</v>
       </c>
-      <c r="D106" s="3">
-        <v>0.63752092403593497</v>
+      <c r="D106">
+        <v>1</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[62] = 0,637520924035935d;</v>
+        <v>brainCells[62] = 1d;</v>
       </c>
       <c r="K106" t="s">
         <v>4536</v>
@@ -60653,12 +60653,12 @@
       <c r="C107">
         <v>63</v>
       </c>
-      <c r="D107" s="3">
-        <v>0.36247907596406498</v>
+      <c r="D107">
+        <v>0</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="2"/>
-        <v>brainCells[63] = 0,362479075964065d;</v>
+        <v>brainCells[63] = 0d;</v>
       </c>
       <c r="K107" t="s">
         <v>4537</v>
@@ -60668,12 +60668,12 @@
       <c r="C108">
         <v>64</v>
       </c>
-      <c r="D108" s="3">
-        <v>9.6153846153174502E-2</v>
+      <c r="D108">
+        <v>0.360452794269914</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" ref="E108:E131" si="3">"brainCells["&amp;C108&amp;"] = "&amp;D108&amp;"d;"</f>
-        <v>brainCells[64] = 0,0961538461531745d;</v>
+        <v>brainCells[64] = 0,360452794269914d;</v>
       </c>
       <c r="K108" t="s">
         <v>4538</v>
@@ -60683,12 +60683,12 @@
       <c r="C109">
         <v>65</v>
       </c>
-      <c r="D109" s="3">
-        <v>0.90384615384682598</v>
+      <c r="D109">
+        <v>0.63954720573008605</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[65] = 0,903846153846826d;</v>
+        <v>brainCells[65] = 0,639547205730086d;</v>
       </c>
       <c r="K109" t="s">
         <v>4539</v>
@@ -60698,7 +60698,7 @@
       <c r="C110">
         <v>66</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="str">
@@ -60713,12 +60713,12 @@
       <c r="C111">
         <v>67</v>
       </c>
-      <c r="D111" s="3">
-        <v>0.230769187184342</v>
+      <c r="D111">
+        <v>0.23076923076858499</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[67] = 0,230769187184342d;</v>
+        <v>brainCells[67] = 0,230769230768585d;</v>
       </c>
       <c r="K111" t="s">
         <v>4541</v>
@@ -60728,7 +60728,7 @@
       <c r="C112">
         <v>68</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="str">
@@ -60743,12 +60743,12 @@
       <c r="C113">
         <v>69</v>
       </c>
-      <c r="D113" s="3">
-        <v>0.76923081281565797</v>
+      <c r="D113">
+        <v>0.76923076923141498</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[69] = 0,769230812815658d;</v>
+        <v>brainCells[69] = 0,769230769231415d;</v>
       </c>
       <c r="K113" t="s">
         <v>4543</v>
@@ -60758,7 +60758,7 @@
       <c r="C114">
         <v>70</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114">
         <v>0</v>
       </c>
       <c r="E114" t="str">
@@ -60773,7 +60773,7 @@
       <c r="C115">
         <v>71</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115">
         <v>5.5511151200000003E-17</v>
       </c>
       <c r="E115" t="str">
@@ -60788,7 +60788,7 @@
       <c r="C116">
         <v>72</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="str">
@@ -60803,7 +60803,7 @@
       <c r="C117">
         <v>73</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117">
         <v>1</v>
       </c>
       <c r="E117" t="str">
@@ -60818,7 +60818,7 @@
       <c r="C118">
         <v>74</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="str">
@@ -60833,7 +60833,7 @@
       <c r="C119">
         <v>75</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119">
         <v>0</v>
       </c>
       <c r="E119" t="str">
@@ -60848,7 +60848,7 @@
       <c r="C120">
         <v>76</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120">
         <v>1</v>
       </c>
       <c r="E120" t="str">
@@ -60863,12 +60863,12 @@
       <c r="C121">
         <v>77</v>
       </c>
-      <c r="D121" s="3">
-        <v>0.17761475414858</v>
+      <c r="D121">
+        <v>2.7755575600000001E-17</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[77] = 0,17761475414858d;</v>
+        <v>brainCells[77] = 2,77555756E-17d;</v>
       </c>
       <c r="K121" t="s">
         <v>4551</v>
@@ -60878,12 +60878,12 @@
       <c r="C122">
         <v>78</v>
       </c>
-      <c r="D122" s="3">
-        <v>0.82238524585142003</v>
+      <c r="D122">
+        <v>1</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[78] = 0,82238524585142d;</v>
+        <v>brainCells[78] = 1d;</v>
       </c>
       <c r="K122" t="s">
         <v>4552</v>
@@ -60893,7 +60893,7 @@
       <c r="C123">
         <v>79</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="str">
@@ -60908,7 +60908,7 @@
       <c r="C124">
         <v>80</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="str">
@@ -60923,7 +60923,7 @@
       <c r="C125">
         <v>81</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="str">
@@ -60938,12 +60938,12 @@
       <c r="C126">
         <v>82</v>
       </c>
-      <c r="D126" s="3">
-        <v>7.9079661820354294E-2</v>
+      <c r="D126">
+        <v>8.3266726800000004E-17</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[82] = 0,0790796618203543d;</v>
+        <v>brainCells[82] = 8,32667268E-17d;</v>
       </c>
       <c r="K126" t="s">
         <v>4556</v>
@@ -60953,12 +60953,12 @@
       <c r="C127">
         <v>83</v>
       </c>
-      <c r="D127" s="3">
-        <v>0.92092033817964603</v>
+      <c r="D127">
+        <v>1</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="3"/>
-        <v>brainCells[83] = 0,920920338179646d;</v>
+        <v>brainCells[83] = 1d;</v>
       </c>
       <c r="K127" t="s">
         <v>4557</v>
@@ -60968,7 +60968,7 @@
       <c r="C128">
         <v>84</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128">
         <v>5.5511151200000003E-17</v>
       </c>
       <c r="E128" t="str">
@@ -60983,7 +60983,7 @@
       <c r="C129">
         <v>85</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" t="str">
@@ -60998,7 +60998,7 @@
       <c r="C130">
         <v>86</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130">
         <v>6.2450045100000003E-17</v>
       </c>
       <c r="E130" t="str">
@@ -61013,7 +61013,7 @@
       <c r="C131">
         <v>87</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="str">
@@ -61029,6 +61029,20 @@
     <sortCondition ref="C3:C33"/>
   </sortState>
   <conditionalFormatting sqref="D38 F38 H38 Y38:Z38 CL38 BT38 BV38:BX38 CE38 R38:U38 AV38 BD38:BG38 D3:CM37 AB38:AD38 AF38:AG38 AX38:AZ38 BZ38:CA38 CG38:CH38 BI38 BK38 BM38:BR38">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CDA9BA4A-95CB-4DF9-8E9C-319DB41C0F08}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D131">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -61037,7 +61051,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CDA9BA4A-95CB-4DF9-8E9C-319DB41C0F08}</x14:id>
+          <x14:id>{B1DC26CD-6349-4D86-A654-C26BA7DB06D0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -61061,6 +61075,19 @@
           </x14:cfRule>
           <xm:sqref>D38 F38 H38 Y38:Z38 CL38 BT38 BV38:BX38 CE38 R38:U38 AV38 BD38:BG38 D3:CM37 AB38:AD38 AF38:AG38 AX38:AZ38 BZ38:CA38 CG38:CH38 BI38 BK38 BM38:BR38</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1DC26CD-6349-4D86-A654-C26BA7DB06D0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D44:D131</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Probability/Analysis_Best.xlsx
+++ b/Probability/Analysis_Best.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12495" activeTab="3"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Processed" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Optimisation" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">log!$A$1:$C$2203</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4952" uniqueCount="4574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="4580">
   <si>
     <t>19:47:37.50</t>
   </si>
@@ -13805,6 +13806,24 @@
   </si>
   <si>
     <t>Best -0,0000000000000727</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>Coins</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Before optimisation (remove duplicates)</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Component rows</t>
   </si>
 </sst>
 </file>
@@ -49035,7 +49054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CM131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E44" sqref="E44:E131"/>
     </sheetView>
   </sheetViews>
@@ -61092,4 +61111,66 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4578</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4576</v>
+      </c>
+      <c r="D8">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Probability/Analysis_Best.xlsx
+++ b/Probability/Analysis_Best.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12495" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Processed" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Best 3x4" sheetId="4" r:id="rId4"/>
     <sheet name="Optimisation" sheetId="5" r:id="rId5"/>
+    <sheet name="Best 4x6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">log!$A$1:$C$2203</definedName>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="4580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5237" uniqueCount="4769">
   <si>
     <t>19:47:37.50</t>
   </si>
@@ -13824,6 +13825,573 @@
   </si>
   <si>
     <t>Component rows</t>
+  </si>
+  <si>
+    <t>D88</t>
+  </si>
+  <si>
+    <t>D89</t>
+  </si>
+  <si>
+    <t>D90</t>
+  </si>
+  <si>
+    <t>D91</t>
+  </si>
+  <si>
+    <t>D92</t>
+  </si>
+  <si>
+    <t>D93</t>
+  </si>
+  <si>
+    <t>D94</t>
+  </si>
+  <si>
+    <t>D95</t>
+  </si>
+  <si>
+    <t>D96</t>
+  </si>
+  <si>
+    <t>D97</t>
+  </si>
+  <si>
+    <t>D98</t>
+  </si>
+  <si>
+    <t>D99</t>
+  </si>
+  <si>
+    <t>D100</t>
+  </si>
+  <si>
+    <t>D101</t>
+  </si>
+  <si>
+    <t>D102</t>
+  </si>
+  <si>
+    <t>D103</t>
+  </si>
+  <si>
+    <t>D104</t>
+  </si>
+  <si>
+    <t>D105</t>
+  </si>
+  <si>
+    <t>D106</t>
+  </si>
+  <si>
+    <t>D107</t>
+  </si>
+  <si>
+    <t>D108</t>
+  </si>
+  <si>
+    <t>D109</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>D111</t>
+  </si>
+  <si>
+    <t>D112</t>
+  </si>
+  <si>
+    <t>D113</t>
+  </si>
+  <si>
+    <t>D114</t>
+  </si>
+  <si>
+    <t>D115</t>
+  </si>
+  <si>
+    <t>D116</t>
+  </si>
+  <si>
+    <t>D117</t>
+  </si>
+  <si>
+    <t>D118</t>
+  </si>
+  <si>
+    <t>D119</t>
+  </si>
+  <si>
+    <t>D120</t>
+  </si>
+  <si>
+    <t>D121</t>
+  </si>
+  <si>
+    <t>D122</t>
+  </si>
+  <si>
+    <t>D123</t>
+  </si>
+  <si>
+    <t>D124</t>
+  </si>
+  <si>
+    <t>D125</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>D127</t>
+  </si>
+  <si>
+    <t>D128</t>
+  </si>
+  <si>
+    <t>D129</t>
+  </si>
+  <si>
+    <t>D130</t>
+  </si>
+  <si>
+    <t>D131</t>
+  </si>
+  <si>
+    <t>D132</t>
+  </si>
+  <si>
+    <t>D133</t>
+  </si>
+  <si>
+    <t>D134</t>
+  </si>
+  <si>
+    <t>D135</t>
+  </si>
+  <si>
+    <t>D136</t>
+  </si>
+  <si>
+    <t>D137</t>
+  </si>
+  <si>
+    <t>D138</t>
+  </si>
+  <si>
+    <t>D139</t>
+  </si>
+  <si>
+    <t>D140</t>
+  </si>
+  <si>
+    <t>D141</t>
+  </si>
+  <si>
+    <t>D142</t>
+  </si>
+  <si>
+    <t>D143</t>
+  </si>
+  <si>
+    <t>D144</t>
+  </si>
+  <si>
+    <t>D145</t>
+  </si>
+  <si>
+    <t>D146</t>
+  </si>
+  <si>
+    <t>D147</t>
+  </si>
+  <si>
+    <t>D148</t>
+  </si>
+  <si>
+    <t>D149</t>
+  </si>
+  <si>
+    <t>D150</t>
+  </si>
+  <si>
+    <t>D151</t>
+  </si>
+  <si>
+    <t>D152</t>
+  </si>
+  <si>
+    <t>D153</t>
+  </si>
+  <si>
+    <t>D154</t>
+  </si>
+  <si>
+    <t>D155</t>
+  </si>
+  <si>
+    <t>D156</t>
+  </si>
+  <si>
+    <t>D157</t>
+  </si>
+  <si>
+    <t>D158</t>
+  </si>
+  <si>
+    <t>D159</t>
+  </si>
+  <si>
+    <t>D160</t>
+  </si>
+  <si>
+    <t>D161</t>
+  </si>
+  <si>
+    <t>D162</t>
+  </si>
+  <si>
+    <t>D163</t>
+  </si>
+  <si>
+    <t>D164</t>
+  </si>
+  <si>
+    <t>D165</t>
+  </si>
+  <si>
+    <t>D166</t>
+  </si>
+  <si>
+    <t>D167</t>
+  </si>
+  <si>
+    <t>D168</t>
+  </si>
+  <si>
+    <t>D169</t>
+  </si>
+  <si>
+    <t>D170</t>
+  </si>
+  <si>
+    <t>D171</t>
+  </si>
+  <si>
+    <t>D172</t>
+  </si>
+  <si>
+    <t>D173</t>
+  </si>
+  <si>
+    <t>D174</t>
+  </si>
+  <si>
+    <t>D175</t>
+  </si>
+  <si>
+    <t>D176</t>
+  </si>
+  <si>
+    <t>D177</t>
+  </si>
+  <si>
+    <t>D178</t>
+  </si>
+  <si>
+    <t>D179</t>
+  </si>
+  <si>
+    <t>D180</t>
+  </si>
+  <si>
+    <t>D181</t>
+  </si>
+  <si>
+    <t>D182</t>
+  </si>
+  <si>
+    <t>D183</t>
+  </si>
+  <si>
+    <t>D184</t>
+  </si>
+  <si>
+    <t>D185</t>
+  </si>
+  <si>
+    <t>D186</t>
+  </si>
+  <si>
+    <t>D187</t>
+  </si>
+  <si>
+    <t>D188</t>
+  </si>
+  <si>
+    <t>D189</t>
+  </si>
+  <si>
+    <t>D190</t>
+  </si>
+  <si>
+    <t>D191</t>
+  </si>
+  <si>
+    <t>D192</t>
+  </si>
+  <si>
+    <t>D193</t>
+  </si>
+  <si>
+    <t>D194</t>
+  </si>
+  <si>
+    <t>D195</t>
+  </si>
+  <si>
+    <t>D196</t>
+  </si>
+  <si>
+    <t>D197</t>
+  </si>
+  <si>
+    <t>D198</t>
+  </si>
+  <si>
+    <t>D199</t>
+  </si>
+  <si>
+    <t>D200</t>
+  </si>
+  <si>
+    <t>D201</t>
+  </si>
+  <si>
+    <t>D202</t>
+  </si>
+  <si>
+    <t>D203</t>
+  </si>
+  <si>
+    <t>D204</t>
+  </si>
+  <si>
+    <t>D205</t>
+  </si>
+  <si>
+    <t>D206</t>
+  </si>
+  <si>
+    <t>D207</t>
+  </si>
+  <si>
+    <t>D208</t>
+  </si>
+  <si>
+    <t>D209</t>
+  </si>
+  <si>
+    <t>D210</t>
+  </si>
+  <si>
+    <t>D211</t>
+  </si>
+  <si>
+    <t>D212</t>
+  </si>
+  <si>
+    <t>D213</t>
+  </si>
+  <si>
+    <t>D214</t>
+  </si>
+  <si>
+    <t>D215</t>
+  </si>
+  <si>
+    <t>D216</t>
+  </si>
+  <si>
+    <t>D217</t>
+  </si>
+  <si>
+    <t>D218</t>
+  </si>
+  <si>
+    <t>D219</t>
+  </si>
+  <si>
+    <t>D220</t>
+  </si>
+  <si>
+    <t>D221</t>
+  </si>
+  <si>
+    <t>D222</t>
+  </si>
+  <si>
+    <t>D223</t>
+  </si>
+  <si>
+    <t>D224</t>
+  </si>
+  <si>
+    <t>D225</t>
+  </si>
+  <si>
+    <t>D226</t>
+  </si>
+  <si>
+    <t>D227</t>
+  </si>
+  <si>
+    <t>D228</t>
+  </si>
+  <si>
+    <t>D229</t>
+  </si>
+  <si>
+    <t>D230</t>
+  </si>
+  <si>
+    <t>D231</t>
+  </si>
+  <si>
+    <t>D232</t>
+  </si>
+  <si>
+    <t>D233</t>
+  </si>
+  <si>
+    <t>D234</t>
+  </si>
+  <si>
+    <t>D235</t>
+  </si>
+  <si>
+    <t>D236</t>
+  </si>
+  <si>
+    <t>D237</t>
+  </si>
+  <si>
+    <t>D238</t>
+  </si>
+  <si>
+    <t>D239</t>
+  </si>
+  <si>
+    <t>D240</t>
+  </si>
+  <si>
+    <t>D241</t>
+  </si>
+  <si>
+    <t>D242</t>
+  </si>
+  <si>
+    <t>D243</t>
+  </si>
+  <si>
+    <t>D244</t>
+  </si>
+  <si>
+    <t>D245</t>
+  </si>
+  <si>
+    <t>D246</t>
+  </si>
+  <si>
+    <t>D247</t>
+  </si>
+  <si>
+    <t>D248</t>
+  </si>
+  <si>
+    <t>D249</t>
+  </si>
+  <si>
+    <t>D250</t>
+  </si>
+  <si>
+    <t>D251</t>
+  </si>
+  <si>
+    <t>D252</t>
+  </si>
+  <si>
+    <t>D253</t>
+  </si>
+  <si>
+    <t>D254</t>
+  </si>
+  <si>
+    <t>D255</t>
+  </si>
+  <si>
+    <t>D256</t>
+  </si>
+  <si>
+    <t>D257</t>
+  </si>
+  <si>
+    <t>D258</t>
+  </si>
+  <si>
+    <t>D259</t>
+  </si>
+  <si>
+    <t>D260</t>
+  </si>
+  <si>
+    <t>D261</t>
+  </si>
+  <si>
+    <t>D262</t>
+  </si>
+  <si>
+    <t>D263</t>
+  </si>
+  <si>
+    <t>D264</t>
+  </si>
+  <si>
+    <t>D265</t>
+  </si>
+  <si>
+    <t>D266</t>
+  </si>
+  <si>
+    <t>D267</t>
+  </si>
+  <si>
+    <t>D268</t>
+  </si>
+  <si>
+    <t>D269</t>
+  </si>
+  <si>
+    <t>D270</t>
+  </si>
+  <si>
+    <t>D271</t>
+  </si>
+  <si>
+    <t>D272</t>
+  </si>
+  <si>
+    <t>D273</t>
+  </si>
+  <si>
+    <t>D274</t>
+  </si>
+  <si>
+    <t>D275</t>
+  </si>
+  <si>
+    <t>Best -0,0216486049180794</t>
   </si>
 </sst>
 </file>
@@ -49054,8 +49622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CM131"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E131"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61117,7 +61685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -61173,4 +61741,5081 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:JS284"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="279" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4384</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4385</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4386</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4387</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4388</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4389</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4390</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4391</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4392</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4393</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4394</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4395</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4396</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4397</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4398</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4399</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4400</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4401</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4402</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4403</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4404</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4405</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>4406</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4407</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>4408</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>4409</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>4410</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>4411</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>4412</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>4413</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>4414</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>4415</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>4416</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>4417</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>4418</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>4419</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>4420</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>4421</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>4422</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>4423</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>4424</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>4425</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>4426</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>4427</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>4428</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>4429</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>4430</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>4431</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>4432</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>4433</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>4434</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>4435</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>4436</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>4437</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>4438</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>4439</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>4440</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>4441</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>4442</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>4443</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>4444</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>4445</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>4446</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>4447</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>4448</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>4449</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>4450</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>4451</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>4452</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>4453</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>4454</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>4455</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>4456</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>4457</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>4458</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>4459</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>4460</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>4461</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>4462</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>4463</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>4464</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>4465</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>4466</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>4467</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>4468</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>4469</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>4470</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>4471</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>4580</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>4581</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>4582</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>4583</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>4584</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>4585</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>4586</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>4587</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>4588</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>4589</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>4590</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>4591</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>4592</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>4593</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>4594</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>4595</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>4596</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>4597</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>4598</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>4599</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>4600</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>4601</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>4602</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>4603</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>4604</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>4605</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>4606</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>4607</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>4608</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>4609</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>4610</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>4611</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>4612</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>4613</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>4614</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>4615</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>4616</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>4617</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>4618</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>4619</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>4620</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>4621</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>4622</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>4623</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>4624</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>4625</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>4626</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>4627</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>4628</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>4629</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>4630</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>4631</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>4632</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>4633</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>4634</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>4635</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>4636</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>4637</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>4638</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>4639</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>4640</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>4641</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>4642</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>4643</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>4644</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>4645</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>4646</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>4647</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>4648</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>4649</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>4650</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>4651</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>4652</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>4653</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>4654</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>4655</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>4656</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>4657</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>4658</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>4659</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>4660</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>4661</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>4662</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>4663</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>4664</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>4665</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>4666</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>4667</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>4668</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>4669</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>4670</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>4671</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>4672</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>4673</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>4674</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>4675</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>4676</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>4677</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>4678</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>4679</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>4680</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>4681</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>4682</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>4683</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>4684</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>4685</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>4686</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>4687</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>4688</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>4689</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>4690</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>4691</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>4692</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>4693</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>4694</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>4695</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>4696</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>4697</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>4698</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>4699</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>4700</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>4701</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>4702</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>4703</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>4704</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>4705</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>4706</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>4707</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>4708</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>4709</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>4710</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>4711</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>4712</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>4713</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>4714</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>4715</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>4716</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>4717</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>4718</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>4719</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>4720</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>4721</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>4722</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>4723</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>4724</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>4725</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>4726</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>4727</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>4728</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>4729</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>4730</v>
+      </c>
+      <c r="II2" t="s">
+        <v>4731</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>4732</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>4733</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>4734</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>4735</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>4736</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>4737</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>4738</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>4739</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>4740</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>4741</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>4742</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>4743</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>4744</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>4745</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>4746</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>4747</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>4748</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>4749</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>4750</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>4751</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>4752</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>4753</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>4754</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>4755</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>4756</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>4757</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>4758</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>4759</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>4760</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>4761</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>4762</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>4763</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>4764</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>4765</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>4766</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="3" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3">
+        <v>-2.1648604918079399E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.48502590256558897</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.26328337679026198</v>
+      </c>
+      <c r="H3">
+        <v>0.25169072064414999</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5.1119276561075802E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.296586785109342</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.65229393832958205</v>
+      </c>
+      <c r="N3">
+        <v>1.6161008279845599E-2</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.66151459777175303</v>
+      </c>
+      <c r="Q3">
+        <v>0.32232439394840101</v>
+      </c>
+      <c r="R3">
+        <v>0.62956827921524605</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.370431720784754</v>
+      </c>
+      <c r="U3">
+        <v>0.39717596021537799</v>
+      </c>
+      <c r="V3">
+        <v>0.60282403978462196</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.28150635268593899</v>
+      </c>
+      <c r="Z3">
+        <v>0.42999082822256202</v>
+      </c>
+      <c r="AA3">
+        <v>0.2885028190915</v>
+      </c>
+      <c r="AB3">
+        <v>0.98757937600166001</v>
+      </c>
+      <c r="AC3">
+        <v>1.24206239983395E-2</v>
+      </c>
+      <c r="AD3">
+        <v>0.58367252011109105</v>
+      </c>
+      <c r="AE3">
+        <v>0.416327479888909</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>0.40741464527198101</v>
+      </c>
+      <c r="AN3">
+        <v>0.59258535472801899</v>
+      </c>
+      <c r="AO3">
+        <v>0.14467582445001401</v>
+      </c>
+      <c r="AP3">
+        <v>0.85532417554998597</v>
+      </c>
+      <c r="AQ3">
+        <v>0.92134049021210096</v>
+      </c>
+      <c r="AR3">
+        <v>7.8659509787899595E-2</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0.84389701513707405</v>
+      </c>
+      <c r="AW3">
+        <v>0.15610298486292601</v>
+      </c>
+      <c r="AX3">
+        <v>1.79364345908395E-2</v>
+      </c>
+      <c r="AY3">
+        <v>0.95630577994027399</v>
+      </c>
+      <c r="AZ3">
+        <v>2.7755576000000001E-18</v>
+      </c>
+      <c r="BA3">
+        <v>2.5757785468886098E-2</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>9.7144514699999994E-17</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0.54720203386813204</v>
+      </c>
+      <c r="BI3">
+        <v>0.45279796613186801</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0.262253819758129</v>
+      </c>
+      <c r="BM3">
+        <v>0.491679242976933</v>
+      </c>
+      <c r="BN3">
+        <v>0.246066937264938</v>
+      </c>
+      <c r="BO3">
+        <v>0.92791036110149006</v>
+      </c>
+      <c r="BP3">
+        <v>7.2089638898509806E-2</v>
+      </c>
+      <c r="BQ3">
+        <v>0.83858729007781696</v>
+      </c>
+      <c r="BR3">
+        <v>0.16141270992218301</v>
+      </c>
+      <c r="BS3">
+        <v>0.70309794165497297</v>
+      </c>
+      <c r="BT3">
+        <v>0.26827459611224902</v>
+      </c>
+      <c r="BU3">
+        <v>2.8627462232777599E-2</v>
+      </c>
+      <c r="BV3">
+        <v>0.87050163495628197</v>
+      </c>
+      <c r="BW3">
+        <v>0.12949836504371801</v>
+      </c>
+      <c r="BX3">
+        <v>1</v>
+      </c>
+      <c r="BY3">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="BZ3">
+        <v>0.60259075428071496</v>
+      </c>
+      <c r="CA3">
+        <v>0.12531513651992901</v>
+      </c>
+      <c r="CB3">
+        <v>1.9914408212935102E-2</v>
+      </c>
+      <c r="CC3">
+        <v>0.25217970098642101</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0.83642425181782099</v>
+      </c>
+      <c r="CJ3">
+        <v>0.16357574818217899</v>
+      </c>
+      <c r="CK3">
+        <v>0.936543072597392</v>
+      </c>
+      <c r="CL3">
+        <v>2.2514995404076501E-2</v>
+      </c>
+      <c r="CM3">
+        <v>4.09419319985318E-2</v>
+      </c>
+      <c r="CN3">
+        <v>1</v>
+      </c>
+      <c r="CO3">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="CP3">
+        <v>1</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0.99878342946321896</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>1.21657053678059E-3</v>
+      </c>
+      <c r="CV3">
+        <v>2.2204460500000001E-17</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>4.8572257300000002E-17</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0.497842108137663</v>
+      </c>
+      <c r="DC3">
+        <v>0.47393304664485397</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>2.82248452174826E-2</v>
+      </c>
+      <c r="DF3">
+        <v>2.7755575600000001E-17</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>9.8860959723296504E-2</v>
+      </c>
+      <c r="DJ3">
+        <v>0.901139040276704</v>
+      </c>
+      <c r="DK3">
+        <v>1</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0.79196546460708706</v>
+      </c>
+      <c r="DN3">
+        <v>0.208034535392913</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0.34643649924346598</v>
+      </c>
+      <c r="DQ3">
+        <v>0.65356350075653402</v>
+      </c>
+      <c r="DR3">
+        <v>0.79842956658786302</v>
+      </c>
+      <c r="DS3">
+        <v>0.20157043341213701</v>
+      </c>
+      <c r="DT3">
+        <v>0.248099546550612</v>
+      </c>
+      <c r="DU3">
+        <v>0.75120351246591699</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>6.96940983470951E-4</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3">
+        <v>1.1085005286727401E-2</v>
+      </c>
+      <c r="DZ3">
+        <v>0.98891499471327304</v>
+      </c>
+      <c r="EA3">
+        <v>0.46199337109468902</v>
+      </c>
+      <c r="EB3">
+        <v>0.53800662890531104</v>
+      </c>
+      <c r="EC3">
+        <v>0.50987464547721995</v>
+      </c>
+      <c r="ED3">
+        <v>0.49012535452278</v>
+      </c>
+      <c r="EE3">
+        <v>0.412708413143269</v>
+      </c>
+      <c r="EF3">
+        <v>0.587291586856731</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0.99999999999927702</v>
+      </c>
+      <c r="EI3">
+        <v>7.2252100136170005E-13</v>
+      </c>
+      <c r="EJ3">
+        <v>0.50095418222902099</v>
+      </c>
+      <c r="EK3">
+        <v>0.49904581777097901</v>
+      </c>
+      <c r="EL3">
+        <v>8.3266726800000004E-17</v>
+      </c>
+      <c r="EM3">
+        <v>1</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>0</v>
+      </c>
+      <c r="ER3">
+        <v>0.97731563773268104</v>
+      </c>
+      <c r="ES3">
+        <v>2.2684362267318701E-2</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0.17820173728762101</v>
+      </c>
+      <c r="EW3">
+        <v>0.82179826271237899</v>
+      </c>
+      <c r="EX3">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="EZ3">
+        <v>0.57959503405997803</v>
+      </c>
+      <c r="FA3">
+        <v>0.34986585237539503</v>
+      </c>
+      <c r="FB3">
+        <v>7.0539113564627498E-2</v>
+      </c>
+      <c r="FC3">
+        <v>0.59589083492682104</v>
+      </c>
+      <c r="FD3">
+        <v>0.40410916507317901</v>
+      </c>
+      <c r="FE3">
+        <v>1</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0.56082803130721204</v>
+      </c>
+      <c r="FH3">
+        <v>0.43917196869278802</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>0.42857142857194003</v>
+      </c>
+      <c r="FK3">
+        <v>0.57142857142806003</v>
+      </c>
+      <c r="FL3">
+        <v>0.65661915286416905</v>
+      </c>
+      <c r="FM3">
+        <v>0.343380847135831</v>
+      </c>
+      <c r="FN3">
+        <v>0.16634945802225301</v>
+      </c>
+      <c r="FO3">
+        <v>0.78386452144406304</v>
+      </c>
+      <c r="FP3">
+        <v>1.4551901350579E-12</v>
+      </c>
+      <c r="FQ3">
+        <v>4.9786020532229198E-2</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>5.9879239202841099E-2</v>
+      </c>
+      <c r="FT3">
+        <v>0.94012076079715901</v>
+      </c>
+      <c r="FU3">
+        <v>0.256574960791698</v>
+      </c>
+      <c r="FV3">
+        <v>0.74342503920830205</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>1</v>
+      </c>
+      <c r="FY3">
+        <v>0.68319321084683204</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0.31680678915316801</v>
+      </c>
+      <c r="GB3">
+        <v>0.60751909006471705</v>
+      </c>
+      <c r="GC3">
+        <v>0.39248090993528301</v>
+      </c>
+      <c r="GD3">
+        <v>1</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>1</v>
+      </c>
+      <c r="GH3">
+        <v>0</v>
+      </c>
+      <c r="GI3">
+        <v>0</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>0</v>
+      </c>
+      <c r="GL3">
+        <v>4.57674430581392E-2</v>
+      </c>
+      <c r="GM3">
+        <v>0.86707599305883198</v>
+      </c>
+      <c r="GN3">
+        <v>0</v>
+      </c>
+      <c r="GO3">
+        <v>8.7156563883028906E-2</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0.40028082488386602</v>
+      </c>
+      <c r="GR3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>0.59971917511613404</v>
+      </c>
+      <c r="GT3">
+        <v>0</v>
+      </c>
+      <c r="GU3">
+        <v>0.66044887602869995</v>
+      </c>
+      <c r="GV3">
+        <v>0.3395511239713</v>
+      </c>
+      <c r="GW3">
+        <v>0.523204934011959</v>
+      </c>
+      <c r="GX3">
+        <v>0.476795065988041</v>
+      </c>
+      <c r="GY3">
+        <v>0.19460015019398</v>
+      </c>
+      <c r="GZ3">
+        <v>0.80539984980601997</v>
+      </c>
+      <c r="HA3">
+        <v>0</v>
+      </c>
+      <c r="HB3">
+        <v>0.66399291936459703</v>
+      </c>
+      <c r="HC3">
+        <v>0.33600708063540302</v>
+      </c>
+      <c r="HD3">
+        <v>0.61977252168692498</v>
+      </c>
+      <c r="HE3">
+        <v>0.38022747831307502</v>
+      </c>
+      <c r="HF3">
+        <v>0</v>
+      </c>
+      <c r="HG3">
+        <v>1</v>
+      </c>
+      <c r="HH3">
+        <v>0</v>
+      </c>
+      <c r="HI3">
+        <v>0.41738409743016203</v>
+      </c>
+      <c r="HJ3">
+        <v>9.9572041066344805E-2</v>
+      </c>
+      <c r="HK3">
+        <v>0.48304386150349299</v>
+      </c>
+      <c r="HL3">
+        <v>0</v>
+      </c>
+      <c r="HM3">
+        <v>0.74823314722883305</v>
+      </c>
+      <c r="HN3">
+        <v>0.251766852771167</v>
+      </c>
+      <c r="HO3">
+        <v>0</v>
+      </c>
+      <c r="HP3">
+        <v>1</v>
+      </c>
+      <c r="HQ3">
+        <v>0.49555322672353203</v>
+      </c>
+      <c r="HR3">
+        <v>0.50444677327646803</v>
+      </c>
+      <c r="HS3">
+        <v>2.7755575600000001E-17</v>
+      </c>
+      <c r="HT3">
+        <v>0.76298610855033</v>
+      </c>
+      <c r="HU3">
+        <v>0.23701389144967</v>
+      </c>
+      <c r="HV3">
+        <v>0.99999999999887601</v>
+      </c>
+      <c r="HW3">
+        <v>1.1238995845098001E-12</v>
+      </c>
+      <c r="HX3">
+        <v>0.101275220560504</v>
+      </c>
+      <c r="HY3">
+        <v>0.89872477943949602</v>
+      </c>
+      <c r="HZ3">
+        <v>0</v>
+      </c>
+      <c r="IA3">
+        <v>1.4551693183761999E-12</v>
+      </c>
+      <c r="IB3">
+        <v>0</v>
+      </c>
+      <c r="IC3">
+        <v>0.58051546559203104</v>
+      </c>
+      <c r="ID3">
+        <v>0.41948453440651401</v>
+      </c>
+      <c r="IE3">
+        <v>0</v>
+      </c>
+      <c r="IF3">
+        <v>0</v>
+      </c>
+      <c r="IG3">
+        <v>0</v>
+      </c>
+      <c r="IH3">
+        <v>0</v>
+      </c>
+      <c r="II3">
+        <v>1</v>
+      </c>
+      <c r="IJ3">
+        <v>0</v>
+      </c>
+      <c r="IK3">
+        <v>0.294854588012609</v>
+      </c>
+      <c r="IL3">
+        <v>0</v>
+      </c>
+      <c r="IM3">
+        <v>0.705145411987391</v>
+      </c>
+      <c r="IN3">
+        <v>0</v>
+      </c>
+      <c r="IO3">
+        <v>0.86261506169989199</v>
+      </c>
+      <c r="IP3">
+        <v>0.13738493830010801</v>
+      </c>
+      <c r="IQ3">
+        <v>0.54265683537302301</v>
+      </c>
+      <c r="IR3">
+        <v>0.45734316462697699</v>
+      </c>
+      <c r="IS3">
+        <v>0.38493724357368497</v>
+      </c>
+      <c r="IT3">
+        <v>0.61506275642631503</v>
+      </c>
+      <c r="IU3">
+        <v>1.1102230250000001E-16</v>
+      </c>
+      <c r="IV3">
+        <v>0</v>
+      </c>
+      <c r="IW3">
+        <v>1</v>
+      </c>
+      <c r="IX3">
+        <v>0.63927278328441195</v>
+      </c>
+      <c r="IY3">
+        <v>0.36072721671558799</v>
+      </c>
+      <c r="IZ3">
+        <v>0.93730375746164796</v>
+      </c>
+      <c r="JA3">
+        <v>6.2696242538352404E-2</v>
+      </c>
+      <c r="JB3">
+        <v>0</v>
+      </c>
+      <c r="JC3">
+        <v>0</v>
+      </c>
+      <c r="JD3">
+        <v>1.5396017793989001E-12</v>
+      </c>
+      <c r="JE3">
+        <v>0.99999999999846001</v>
+      </c>
+      <c r="JF3">
+        <v>0.42276101024338503</v>
+      </c>
+      <c r="JG3">
+        <v>0.38349016307099298</v>
+      </c>
+      <c r="JH3">
+        <v>0.19374882668562199</v>
+      </c>
+      <c r="JI3">
+        <v>6.9388939000000003E-17</v>
+      </c>
+      <c r="JJ3">
+        <v>1</v>
+      </c>
+      <c r="JK3">
+        <v>0.39581749592261001</v>
+      </c>
+      <c r="JL3">
+        <v>0.60418250407739005</v>
+      </c>
+      <c r="JM3">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="JN3">
+        <v>0</v>
+      </c>
+      <c r="JO3">
+        <v>1</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>1</v>
+      </c>
+      <c r="JR3">
+        <v>6.9388939000000003E-17</v>
+      </c>
+      <c r="JS3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="8" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" t="s">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="9" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.48502590256558897</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ref="E9:E72" si="0">"brainCells["&amp;C9&amp;"] = "&amp;D9&amp;"d;"</f>
+        <v>brainCells[0] = 0,485025902565589d;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[1] = 0d;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[2] = 0d;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0.26328337679026198</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[3] = 0,263283376790262d;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0.25169072064414999</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[4] = 0,25169072064415d;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[5] = 0d;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>5.1119276561075802E-2</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[6] = 0,0511192765610758d;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:279" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0.296586785109342</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[7] = 0,296586785109342d;</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[8] = 0d;</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>0.65229393832958205</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[9] = 0,652293938329582d;</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1.6161008279845599E-2</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[10] = 0,0161610082798456d;</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[11] = 0d;</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>0.66151459777175303</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[12] = 0,661514597771753d;</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>0.32232439394840101</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[13] = 0,322324393948401d;</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>0.62956827921524605</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[14] = 0,629568279215246d;</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[15] = 0d;</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>0.370431720784754</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[16] = 0,370431720784754d;</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>0.39717596021537799</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[17] = 0,397175960215378d;</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>0.60282403978462196</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[18] = 0,602824039784622d;</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[19] = 1d;</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[20] = 0d;</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>0.28150635268593899</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[21] = 0,281506352685939d;</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>0.42999082822256202</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[22] = 0,429990828222562d;</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>0.2885028190915</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[23] = 0,2885028190915d;</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>0.98757937600166001</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[24] = 0,98757937600166d;</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>1.24206239983395E-2</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[25] = 0,0124206239983395d;</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>0.58367252011109105</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[26] = 0,583672520111091d;</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>0.416327479888909</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[27] = 0,416327479888909d;</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[28] = 1d;</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[29] = 0d;</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[30] = 0d;</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[31] = 0d;</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[32] = 0d;</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>33</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[33] = 0d;</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[34] = 1d;</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>0.40741464527198101</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[35] = 0,407414645271981d;</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>0.59258535472801899</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[36] = 0,592585354728019d;</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>0.14467582445001401</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[37] = 0,144675824450014d;</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <v>0.85532417554998597</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[38] = 0,855324175549986d;</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>0.92134049021210096</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[39] = 0,921340490212101d;</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>7.8659509787899595E-2</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[40] = 0,0786595097878996d;</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>41</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[41] = 0d;</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[42] = 1d;</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>43</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[43] = 0d;</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>0.84389701513707405</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[44] = 0,843897015137074d;</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>45</v>
+      </c>
+      <c r="D54">
+        <v>0.15610298486292601</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[45] = 0,156102984862926d;</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>1.79364345908395E-2</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[46] = 0,0179364345908395d;</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>47</v>
+      </c>
+      <c r="D56">
+        <v>0.95630577994027399</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[47] = 0,956305779940274d;</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>2.7755576000000001E-18</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[48] = 2,7755576E-18d;</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>2.5757785468886098E-2</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[49] = 0,0257577854688861d;</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[50] = 0d;</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>9.7144514699999994E-17</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[51] = 9,71445147E-17d;</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>52</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[52] = 1d;</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>53</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[53] = 0d;</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>54</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[54] = 0d;</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>55</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[55] = 0d;</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>56</v>
+      </c>
+      <c r="D65">
+        <v>0.54720203386813204</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[56] = 0,547202033868132d;</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>57</v>
+      </c>
+      <c r="D66">
+        <v>0.45279796613186801</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[57] = 0,452797966131868d;</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>58</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[58] = 0d;</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>59</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[59] = 0d;</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>60</v>
+      </c>
+      <c r="D69">
+        <v>0.262253819758129</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[60] = 0,262253819758129d;</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>61</v>
+      </c>
+      <c r="D70">
+        <v>0.491679242976933</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[61] = 0,491679242976933d;</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>62</v>
+      </c>
+      <c r="D71">
+        <v>0.246066937264938</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[62] = 0,246066937264938d;</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>63</v>
+      </c>
+      <c r="D72">
+        <v>0.92791036110149006</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="0"/>
+        <v>brainCells[63] = 0,92791036110149d;</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>64</v>
+      </c>
+      <c r="D73">
+        <v>7.2089638898509806E-2</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" ref="E73:E136" si="1">"brainCells["&amp;C73&amp;"] = "&amp;D73&amp;"d;"</f>
+        <v>brainCells[64] = 0,0720896388985098d;</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>65</v>
+      </c>
+      <c r="D74">
+        <v>0.83858729007781696</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[65] = 0,838587290077817d;</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>66</v>
+      </c>
+      <c r="D75">
+        <v>0.16141270992218301</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[66] = 0,161412709922183d;</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>67</v>
+      </c>
+      <c r="D76">
+        <v>0.70309794165497297</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[67] = 0,703097941654973d;</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>68</v>
+      </c>
+      <c r="D77">
+        <v>0.26827459611224902</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[68] = 0,268274596112249d;</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>69</v>
+      </c>
+      <c r="D78">
+        <v>2.8627462232777599E-2</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[69] = 0,0286274622327776d;</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>70</v>
+      </c>
+      <c r="D79">
+        <v>0.87050163495628197</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[70] = 0,870501634956282d;</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>71</v>
+      </c>
+      <c r="D80">
+        <v>0.12949836504371801</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[71] = 0,129498365043718d;</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>72</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[72] = 1d;</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>73</v>
+      </c>
+      <c r="D82">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[73] = 5,55111512E-17d;</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>74</v>
+      </c>
+      <c r="D83">
+        <v>0.60259075428071496</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[74] = 0,602590754280715d;</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>75</v>
+      </c>
+      <c r="D84">
+        <v>0.12531513651992901</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[75] = 0,125315136519929d;</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>76</v>
+      </c>
+      <c r="D85">
+        <v>1.9914408212935102E-2</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[76] = 0,0199144082129351d;</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>77</v>
+      </c>
+      <c r="D86">
+        <v>0.25217970098642101</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[77] = 0,252179700986421d;</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>78</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[78] = 1d;</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>79</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[79] = 0d;</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>80</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[80] = 0d;</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>81</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[81] = 1d;</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>82</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[82] = 0d;</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>83</v>
+      </c>
+      <c r="D92">
+        <v>0.83642425181782099</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[83] = 0,836424251817821d;</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>84</v>
+      </c>
+      <c r="D93">
+        <v>0.16357574818217899</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[84] = 0,163575748182179d;</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>85</v>
+      </c>
+      <c r="D94">
+        <v>0.936543072597392</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[85] = 0,936543072597392d;</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>86</v>
+      </c>
+      <c r="D95">
+        <v>2.2514995404076501E-2</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[86] = 0,0225149954040765d;</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>87</v>
+      </c>
+      <c r="D96">
+        <v>4.09419319985318E-2</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[87] = 0,0409419319985318d;</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>88</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[88] = 1d;</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>89</v>
+      </c>
+      <c r="D98">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[89] = 5,55111512E-17d;</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>90</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[90] = 1d;</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>91</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[91] = 0d;</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>92</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[92] = 0d;</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>93</v>
+      </c>
+      <c r="D102">
+        <v>0.99878342946321896</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[93] = 0,998783429463219d;</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>94</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[94] = 0d;</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>95</v>
+      </c>
+      <c r="D104">
+        <v>1.21657053678059E-3</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[95] = 0,00121657053678059d;</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>96</v>
+      </c>
+      <c r="D105">
+        <v>2.2204460500000001E-17</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[96] = 2,22044605E-17d;</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>97</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[97] = 0d;</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>98</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[98] = 1d;</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>99</v>
+      </c>
+      <c r="D108">
+        <v>4.8572257300000002E-17</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[99] = 4,85722573E-17d;</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[100] = 0d;</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>101</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[101] = 0d;</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>102</v>
+      </c>
+      <c r="D111">
+        <v>0.497842108137663</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[102] = 0,497842108137663d;</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>103</v>
+      </c>
+      <c r="D112">
+        <v>0.47393304664485397</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[103] = 0,473933046644854d;</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>104</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[104] = 0d;</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>105</v>
+      </c>
+      <c r="D114">
+        <v>2.82248452174826E-2</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[105] = 0,0282248452174826d;</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>106</v>
+      </c>
+      <c r="D115">
+        <v>2.7755575600000001E-17</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[106] = 2,77555756E-17d;</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>107</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[107] = 1d;</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>108</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[108] = 0d;</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>109</v>
+      </c>
+      <c r="D118">
+        <v>9.8860959723296504E-2</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[109] = 0,0988609597232965d;</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>110</v>
+      </c>
+      <c r="D119">
+        <v>0.901139040276704</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[110] = 0,901139040276704d;</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>111</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[111] = 1d;</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>112</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[112] = 0d;</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>113</v>
+      </c>
+      <c r="D122">
+        <v>0.79196546460708706</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[113] = 0,791965464607087d;</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>114</v>
+      </c>
+      <c r="D123">
+        <v>0.208034535392913</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[114] = 0,208034535392913d;</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>115</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[115] = 0d;</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>116</v>
+      </c>
+      <c r="D125">
+        <v>0.34643649924346598</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[116] = 0,346436499243466d;</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>117</v>
+      </c>
+      <c r="D126">
+        <v>0.65356350075653402</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[117] = 0,653563500756534d;</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>118</v>
+      </c>
+      <c r="D127">
+        <v>0.79842956658786302</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[118] = 0,798429566587863d;</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>119</v>
+      </c>
+      <c r="D128">
+        <v>0.20157043341213701</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[119] = 0,201570433412137d;</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>120</v>
+      </c>
+      <c r="D129">
+        <v>0.248099546550612</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[120] = 0,248099546550612d;</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>121</v>
+      </c>
+      <c r="D130">
+        <v>0.75120351246591699</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[121] = 0,751203512465917d;</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>122</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[122] = 0d;</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>123</v>
+      </c>
+      <c r="D132">
+        <v>6.96940983470951E-4</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[123] = 0,000696940983470951d;</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>124</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[124] = 0d;</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>125</v>
+      </c>
+      <c r="D134">
+        <v>1.1085005286727401E-2</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[125] = 0,0110850052867274d;</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>126</v>
+      </c>
+      <c r="D135">
+        <v>0.98891499471327304</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[126] = 0,988914994713273d;</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>127</v>
+      </c>
+      <c r="D136">
+        <v>0.46199337109468902</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="1"/>
+        <v>brainCells[127] = 0,461993371094689d;</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>128</v>
+      </c>
+      <c r="D137">
+        <v>0.53800662890531104</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" ref="E137:E200" si="2">"brainCells["&amp;C137&amp;"] = "&amp;D137&amp;"d;"</f>
+        <v>brainCells[128] = 0,538006628905311d;</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>129</v>
+      </c>
+      <c r="D138">
+        <v>0.50987464547721995</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[129] = 0,50987464547722d;</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>130</v>
+      </c>
+      <c r="D139">
+        <v>0.49012535452278</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[130] = 0,49012535452278d;</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>131</v>
+      </c>
+      <c r="D140">
+        <v>0.412708413143269</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[131] = 0,412708413143269d;</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>132</v>
+      </c>
+      <c r="D141">
+        <v>0.587291586856731</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[132] = 0,587291586856731d;</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>133</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[133] = 0d;</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>134</v>
+      </c>
+      <c r="D143">
+        <v>0.99999999999927702</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[134] = 0,999999999999277d;</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>135</v>
+      </c>
+      <c r="D144">
+        <v>7.2252100136170005E-13</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[135] = 7,225210013617E-13d;</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>136</v>
+      </c>
+      <c r="D145">
+        <v>0.50095418222902099</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[136] = 0,500954182229021d;</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>137</v>
+      </c>
+      <c r="D146">
+        <v>0.49904581777097901</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[137] = 0,499045817770979d;</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>138</v>
+      </c>
+      <c r="D147">
+        <v>8.3266726800000004E-17</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[138] = 8,32667268E-17d;</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>139</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[139] = 1d;</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>140</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[140] = 0d;</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>141</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[141] = 0d;</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>142</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[142] = 0d;</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>143</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[143] = 0d;</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>144</v>
+      </c>
+      <c r="D153">
+        <v>0.97731563773268104</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[144] = 0,977315637732681d;</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>145</v>
+      </c>
+      <c r="D154">
+        <v>2.2684362267318701E-2</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[145] = 0,0226843622673187d;</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>146</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[146] = 0d;</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>147</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[147] = 0d;</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>148</v>
+      </c>
+      <c r="D157">
+        <v>0.17820173728762101</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[148] = 0,178201737287621d;</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>149</v>
+      </c>
+      <c r="D158">
+        <v>0.82179826271237899</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[149] = 0,821798262712379d;</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>150</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[150] = 0d;</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>151</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[151] = 0d;</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>152</v>
+      </c>
+      <c r="D161">
+        <v>0.57959503405997803</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[152] = 0,579595034059978d;</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>153</v>
+      </c>
+      <c r="D162">
+        <v>0.34986585237539503</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[153] = 0,349865852375395d;</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>154</v>
+      </c>
+      <c r="D163">
+        <v>7.0539113564627498E-2</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[154] = 0,0705391135646275d;</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>155</v>
+      </c>
+      <c r="D164">
+        <v>0.59589083492682104</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[155] = 0,595890834926821d;</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>156</v>
+      </c>
+      <c r="D165">
+        <v>0.40410916507317901</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[156] = 0,404109165073179d;</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>157</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[157] = 1d;</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>158</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[158] = 0d;</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>159</v>
+      </c>
+      <c r="D168">
+        <v>0.56082803130721204</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[159] = 0,560828031307212d;</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>160</v>
+      </c>
+      <c r="D169">
+        <v>0.43917196869278802</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[160] = 0,439171968692788d;</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>161</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[161] = 0d;</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>162</v>
+      </c>
+      <c r="D171">
+        <v>0.42857142857194003</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[162] = 0,42857142857194d;</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>163</v>
+      </c>
+      <c r="D172">
+        <v>0.57142857142806003</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[163] = 0,57142857142806d;</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>164</v>
+      </c>
+      <c r="D173">
+        <v>0.65661915286416905</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[164] = 0,656619152864169d;</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>165</v>
+      </c>
+      <c r="D174">
+        <v>0.343380847135831</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[165] = 0,343380847135831d;</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>166</v>
+      </c>
+      <c r="D175">
+        <v>0.16634945802225301</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[166] = 0,166349458022253d;</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>167</v>
+      </c>
+      <c r="D176">
+        <v>0.78386452144406304</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[167] = 0,783864521444063d;</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>168</v>
+      </c>
+      <c r="D177">
+        <v>1.4551901350579E-12</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[168] = 1,4551901350579E-12d;</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>169</v>
+      </c>
+      <c r="D178">
+        <v>4.9786020532229198E-2</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[169] = 0,0497860205322292d;</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>170</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[170] = 0d;</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>171</v>
+      </c>
+      <c r="D180">
+        <v>5.9879239202841099E-2</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[171] = 0,0598792392028411d;</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>172</v>
+      </c>
+      <c r="D181">
+        <v>0.94012076079715901</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[172] = 0,940120760797159d;</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>173</v>
+      </c>
+      <c r="D182">
+        <v>0.256574960791698</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[173] = 0,256574960791698d;</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>174</v>
+      </c>
+      <c r="D183">
+        <v>0.74342503920830205</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[174] = 0,743425039208302d;</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>175</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[175] = 0d;</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>176</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[176] = 1d;</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>177</v>
+      </c>
+      <c r="D186">
+        <v>0.68319321084683204</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[177] = 0,683193210846832d;</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>178</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[178] = 0d;</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>179</v>
+      </c>
+      <c r="D188">
+        <v>0.31680678915316801</v>
+      </c>
+      <c r="E188" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[179] = 0,316806789153168d;</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>180</v>
+      </c>
+      <c r="D189">
+        <v>0.60751909006471705</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[180] = 0,607519090064717d;</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>181</v>
+      </c>
+      <c r="D190">
+        <v>0.39248090993528301</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[181] = 0,392480909935283d;</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>182</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[182] = 1d;</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>183</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[183] = 0d;</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>184</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[184] = 0d;</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>185</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[185] = 1d;</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>186</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[186] = 0d;</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>187</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[187] = 0d;</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>188</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[188] = 0d;</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>189</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[189] = 0d;</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>190</v>
+      </c>
+      <c r="D199">
+        <v>4.57674430581392E-2</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[190] = 0,0457674430581392d;</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>191</v>
+      </c>
+      <c r="D200">
+        <v>0.86707599305883198</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="2"/>
+        <v>brainCells[191] = 0,867075993058832d;</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>192</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" ref="E201:E264" si="3">"brainCells["&amp;C201&amp;"] = "&amp;D201&amp;"d;"</f>
+        <v>brainCells[192] = 0d;</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>193</v>
+      </c>
+      <c r="D202">
+        <v>8.7156563883028906E-2</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[193] = 0,0871565638830289d;</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>194</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[194] = 0d;</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>195</v>
+      </c>
+      <c r="D204">
+        <v>0.40028082488386602</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[195] = 0,400280824883866d;</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>196</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[196] = 0d;</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>197</v>
+      </c>
+      <c r="D206">
+        <v>0.59971917511613404</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[197] = 0,599719175116134d;</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>198</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[198] = 0d;</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>199</v>
+      </c>
+      <c r="D208">
+        <v>0.66044887602869995</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[199] = 0,6604488760287d;</v>
+      </c>
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>200</v>
+      </c>
+      <c r="D209">
+        <v>0.3395511239713</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[200] = 0,3395511239713d;</v>
+      </c>
+    </row>
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>201</v>
+      </c>
+      <c r="D210">
+        <v>0.523204934011959</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[201] = 0,523204934011959d;</v>
+      </c>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>202</v>
+      </c>
+      <c r="D211">
+        <v>0.476795065988041</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[202] = 0,476795065988041d;</v>
+      </c>
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>203</v>
+      </c>
+      <c r="D212">
+        <v>0.19460015019398</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[203] = 0,19460015019398d;</v>
+      </c>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>204</v>
+      </c>
+      <c r="D213">
+        <v>0.80539984980601997</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[204] = 0,80539984980602d;</v>
+      </c>
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>205</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[205] = 0d;</v>
+      </c>
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>206</v>
+      </c>
+      <c r="D215">
+        <v>0.66399291936459703</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[206] = 0,663992919364597d;</v>
+      </c>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>207</v>
+      </c>
+      <c r="D216">
+        <v>0.33600708063540302</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[207] = 0,336007080635403d;</v>
+      </c>
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>208</v>
+      </c>
+      <c r="D217">
+        <v>0.61977252168692498</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[208] = 0,619772521686925d;</v>
+      </c>
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>209</v>
+      </c>
+      <c r="D218">
+        <v>0.38022747831307502</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[209] = 0,380227478313075d;</v>
+      </c>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>210</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[210] = 0d;</v>
+      </c>
+    </row>
+    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>211</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[211] = 1d;</v>
+      </c>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>212</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[212] = 0d;</v>
+      </c>
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>213</v>
+      </c>
+      <c r="D222">
+        <v>0.41738409743016203</v>
+      </c>
+      <c r="E222" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[213] = 0,417384097430162d;</v>
+      </c>
+    </row>
+    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>214</v>
+      </c>
+      <c r="D223">
+        <v>9.9572041066344805E-2</v>
+      </c>
+      <c r="E223" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[214] = 0,0995720410663448d;</v>
+      </c>
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>215</v>
+      </c>
+      <c r="D224">
+        <v>0.48304386150349299</v>
+      </c>
+      <c r="E224" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[215] = 0,483043861503493d;</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>216</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[216] = 0d;</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>217</v>
+      </c>
+      <c r="D226">
+        <v>0.74823314722883305</v>
+      </c>
+      <c r="E226" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[217] = 0,748233147228833d;</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>218</v>
+      </c>
+      <c r="D227">
+        <v>0.251766852771167</v>
+      </c>
+      <c r="E227" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[218] = 0,251766852771167d;</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>219</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[219] = 0d;</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>220</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[220] = 1d;</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>221</v>
+      </c>
+      <c r="D230">
+        <v>0.49555322672353203</v>
+      </c>
+      <c r="E230" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[221] = 0,495553226723532d;</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>222</v>
+      </c>
+      <c r="D231">
+        <v>0.50444677327646803</v>
+      </c>
+      <c r="E231" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[222] = 0,504446773276468d;</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>223</v>
+      </c>
+      <c r="D232">
+        <v>2.7755575600000001E-17</v>
+      </c>
+      <c r="E232" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[223] = 2,77555756E-17d;</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>224</v>
+      </c>
+      <c r="D233">
+        <v>0.76298610855033</v>
+      </c>
+      <c r="E233" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[224] = 0,76298610855033d;</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>225</v>
+      </c>
+      <c r="D234">
+        <v>0.23701389144967</v>
+      </c>
+      <c r="E234" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[225] = 0,23701389144967d;</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>226</v>
+      </c>
+      <c r="D235">
+        <v>0.99999999999887601</v>
+      </c>
+      <c r="E235" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[226] = 0,999999999998876d;</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>227</v>
+      </c>
+      <c r="D236">
+        <v>1.1238995845098001E-12</v>
+      </c>
+      <c r="E236" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[227] = 1,1238995845098E-12d;</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>228</v>
+      </c>
+      <c r="D237">
+        <v>0.101275220560504</v>
+      </c>
+      <c r="E237" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[228] = 0,101275220560504d;</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>229</v>
+      </c>
+      <c r="D238">
+        <v>0.89872477943949602</v>
+      </c>
+      <c r="E238" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[229] = 0,898724779439496d;</v>
+      </c>
+    </row>
+    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>230</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[230] = 0d;</v>
+      </c>
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>231</v>
+      </c>
+      <c r="D240">
+        <v>1.4551693183761999E-12</v>
+      </c>
+      <c r="E240" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[231] = 1,4551693183762E-12d;</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>232</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[232] = 0d;</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>233</v>
+      </c>
+      <c r="D242">
+        <v>0.58051546559203104</v>
+      </c>
+      <c r="E242" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[233] = 0,580515465592031d;</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>234</v>
+      </c>
+      <c r="D243">
+        <v>0.41948453440651401</v>
+      </c>
+      <c r="E243" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[234] = 0,419484534406514d;</v>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>235</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[235] = 0d;</v>
+      </c>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>236</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[236] = 0d;</v>
+      </c>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>237</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[237] = 0d;</v>
+      </c>
+    </row>
+    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>238</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[238] = 0d;</v>
+      </c>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>239</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[239] = 1d;</v>
+      </c>
+    </row>
+    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>240</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[240] = 0d;</v>
+      </c>
+    </row>
+    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>241</v>
+      </c>
+      <c r="D250">
+        <v>0.294854588012609</v>
+      </c>
+      <c r="E250" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[241] = 0,294854588012609d;</v>
+      </c>
+    </row>
+    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>242</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[242] = 0d;</v>
+      </c>
+    </row>
+    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>243</v>
+      </c>
+      <c r="D252">
+        <v>0.705145411987391</v>
+      </c>
+      <c r="E252" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[243] = 0,705145411987391d;</v>
+      </c>
+    </row>
+    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>244</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[244] = 0d;</v>
+      </c>
+    </row>
+    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>245</v>
+      </c>
+      <c r="D254">
+        <v>0.86261506169989199</v>
+      </c>
+      <c r="E254" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[245] = 0,862615061699892d;</v>
+      </c>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>246</v>
+      </c>
+      <c r="D255">
+        <v>0.13738493830010801</v>
+      </c>
+      <c r="E255" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[246] = 0,137384938300108d;</v>
+      </c>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>247</v>
+      </c>
+      <c r="D256">
+        <v>0.54265683537302301</v>
+      </c>
+      <c r="E256" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[247] = 0,542656835373023d;</v>
+      </c>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>248</v>
+      </c>
+      <c r="D257">
+        <v>0.45734316462697699</v>
+      </c>
+      <c r="E257" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[248] = 0,457343164626977d;</v>
+      </c>
+    </row>
+    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>249</v>
+      </c>
+      <c r="D258">
+        <v>0.38493724357368497</v>
+      </c>
+      <c r="E258" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[249] = 0,384937243573685d;</v>
+      </c>
+    </row>
+    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>250</v>
+      </c>
+      <c r="D259">
+        <v>0.61506275642631503</v>
+      </c>
+      <c r="E259" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[250] = 0,615062756426315d;</v>
+      </c>
+    </row>
+    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>251</v>
+      </c>
+      <c r="D260">
+        <v>1.1102230250000001E-16</v>
+      </c>
+      <c r="E260" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[251] = 1,110223025E-16d;</v>
+      </c>
+    </row>
+    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>252</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[252] = 0d;</v>
+      </c>
+    </row>
+    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>253</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[253] = 1d;</v>
+      </c>
+    </row>
+    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <v>254</v>
+      </c>
+      <c r="D263">
+        <v>0.63927278328441195</v>
+      </c>
+      <c r="E263" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[254] = 0,639272783284412d;</v>
+      </c>
+    </row>
+    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>255</v>
+      </c>
+      <c r="D264">
+        <v>0.36072721671558799</v>
+      </c>
+      <c r="E264" t="str">
+        <f t="shared" si="3"/>
+        <v>brainCells[255] = 0,360727216715588d;</v>
+      </c>
+    </row>
+    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>256</v>
+      </c>
+      <c r="D265">
+        <v>0.93730375746164796</v>
+      </c>
+      <c r="E265" t="str">
+        <f t="shared" ref="E265:E284" si="4">"brainCells["&amp;C265&amp;"] = "&amp;D265&amp;"d;"</f>
+        <v>brainCells[256] = 0,937303757461648d;</v>
+      </c>
+    </row>
+    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>257</v>
+      </c>
+      <c r="D266">
+        <v>6.2696242538352404E-2</v>
+      </c>
+      <c r="E266" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[257] = 0,0626962425383524d;</v>
+      </c>
+    </row>
+    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>258</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[258] = 0d;</v>
+      </c>
+    </row>
+    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>259</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[259] = 0d;</v>
+      </c>
+    </row>
+    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>260</v>
+      </c>
+      <c r="D269">
+        <v>1.5396017793989001E-12</v>
+      </c>
+      <c r="E269" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[260] = 1,5396017793989E-12d;</v>
+      </c>
+    </row>
+    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>261</v>
+      </c>
+      <c r="D270">
+        <v>0.99999999999846001</v>
+      </c>
+      <c r="E270" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[261] = 0,99999999999846d;</v>
+      </c>
+    </row>
+    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>262</v>
+      </c>
+      <c r="D271">
+        <v>0.42276101024338503</v>
+      </c>
+      <c r="E271" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[262] = 0,422761010243385d;</v>
+      </c>
+    </row>
+    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>263</v>
+      </c>
+      <c r="D272">
+        <v>0.38349016307099298</v>
+      </c>
+      <c r="E272" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[263] = 0,383490163070993d;</v>
+      </c>
+    </row>
+    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>264</v>
+      </c>
+      <c r="D273">
+        <v>0.19374882668562199</v>
+      </c>
+      <c r="E273" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[264] = 0,193748826685622d;</v>
+      </c>
+    </row>
+    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>265</v>
+      </c>
+      <c r="D274">
+        <v>6.9388939000000003E-17</v>
+      </c>
+      <c r="E274" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[265] = 6,9388939E-17d;</v>
+      </c>
+    </row>
+    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>266</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[266] = 1d;</v>
+      </c>
+    </row>
+    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>267</v>
+      </c>
+      <c r="D276">
+        <v>0.39581749592261001</v>
+      </c>
+      <c r="E276" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[267] = 0,39581749592261d;</v>
+      </c>
+    </row>
+    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>268</v>
+      </c>
+      <c r="D277">
+        <v>0.60418250407739005</v>
+      </c>
+      <c r="E277" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[268] = 0,60418250407739d;</v>
+      </c>
+    </row>
+    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>269</v>
+      </c>
+      <c r="D278">
+        <v>5.5511151200000003E-17</v>
+      </c>
+      <c r="E278" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[269] = 5,55111512E-17d;</v>
+      </c>
+    </row>
+    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>270</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[270] = 0d;</v>
+      </c>
+    </row>
+    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>271</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[271] = 1d;</v>
+      </c>
+    </row>
+    <row r="281" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>272</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[272] = 0d;</v>
+      </c>
+    </row>
+    <row r="282" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>273</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[273] = 1d;</v>
+      </c>
+    </row>
+    <row r="283" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>274</v>
+      </c>
+      <c r="D283">
+        <v>6.9388939000000003E-17</v>
+      </c>
+      <c r="E283" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[274] = 6,9388939E-17d;</v>
+      </c>
+    </row>
+    <row r="284" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>275</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284" t="str">
+        <f t="shared" si="4"/>
+        <v>brainCells[275] = 1d;</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:JS3">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E86CFD17-5CC1-4F74-A38D-B506F73E319E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D284">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A3F3FBFB-5F36-4FE1-B71D-83C4340A7CAA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E86CFD17-5CC1-4F74-A38D-B506F73E319E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:JS3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A3F3FBFB-5F36-4FE1-B71D-83C4340A7CAA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D9:D284</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>